--- a/inputExcel/250702 AI information matrix.xlsx
+++ b/inputExcel/250702 AI information matrix.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lorenzpiazolo/Documents/Python/CAOsDataExtraction/inputExcel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1486FAD1-F474-5C45-8526-7FCCE915D816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F34B9A8-6267-0544-87E8-E1ED4ABFFBE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4340" yWindow="500" windowWidth="24460" windowHeight="16080" xr2:uid="{DE6B04FB-4535-6B4B-8490-9A662190B816}"/>
+    <workbookView xWindow="28800" yWindow="0" windowWidth="22240" windowHeight="16680" xr2:uid="{DE6B04FB-4535-6B4B-8490-9A662190B816}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="183">
   <si>
     <t>CAO</t>
   </si>
@@ -62,9 +62,6 @@
     <t>date_of_formal_notification</t>
   </si>
   <si>
-    <t>temporary</t>
-  </si>
-  <si>
     <t>TTW</t>
   </si>
   <si>
@@ -227,12 +224,6 @@
     <t>training</t>
   </si>
   <si>
-    <t>pdf: start date on front page (date)</t>
-  </si>
-  <si>
-    <t>pdf: end date on front page (date)</t>
-  </si>
-  <si>
     <t>In pdf name (website: Dossier) (no or yes)</t>
   </si>
   <si>
@@ -299,9 +290,6 @@
     <t>salary_age_group</t>
   </si>
   <si>
-    <t>pdf last jobgroup. Should be mentioned in wage table as column titles. Focus on normal / basic wage type tables  (letter, number or text)"</t>
-  </si>
-  <si>
     <t>pdf: salary of last jobgroup, should be last wage, in 1st wage table. As in jobgroup focus on normal / basic wage type tables (number)</t>
   </si>
   <si>
@@ -446,9 +434,6 @@
     <t xml:space="preserve">pdf: all information about minimum of hours, days, weeks, months needed to work per day, week, month or year (text) </t>
   </si>
   <si>
-    <t>pdf: 1st jobgroup. Should be mentioned in wage table as column titles. Focus on normal / basic wage type tables  (letter, number or text)</t>
-  </si>
-  <si>
     <t>pdf: salary of 1st jobgroup, should be 1st wage, in 1st wage table. As in jobgroup focus on normal / basic wage type tables (number)</t>
   </si>
   <si>
@@ -470,9 +455,6 @@
     <t>pdf: salary of 1st jobgroup, should be 1st wage, in 7th wage table. As in jobgroup focus on normal / basic wage type tables (number)</t>
   </si>
   <si>
-    <t>pdf: 2nd jobgroup. Should be mentioned in wage table as column titles. Focus on normal / basic wage type tables  (letter, number or text)</t>
-  </si>
-  <si>
     <t>pdf: salary of 2nd jobgroup, should be 2nd wage, in 1st wage table. As in jobgroup focus on normal / basic wage type tables (number)</t>
   </si>
   <si>
@@ -494,9 +476,6 @@
     <t>pdf: salary of 2nd jobgroup, should be 2nd wage, in 7th wage table. As in jobgroup focus on normal / basic wage type tables (number)</t>
   </si>
   <si>
-    <t>pdf: 3rd jobgroup. Should be mentioned in wage table as column titles. Focus on normal / basic wage type tables  (letter, number or text)</t>
-  </si>
-  <si>
     <t>pdf: salary of 3rd jobgroup, should be 3rd wage, in 1st wage table. As in jobgroup focus on normal / basic wage type tables (number)</t>
   </si>
   <si>
@@ -534,13 +513,85 @@
   </si>
   <si>
     <t>Training Information</t>
+  </si>
+  <si>
+    <t>pdf: all information about 2nd jobgroup. Should be mentioned in wage table as column titles. Focus only on normal / basic wage type tables f multiple tables exist with different kind of wage types - also for the next salary columns (letter, number or text)</t>
+  </si>
+  <si>
+    <t>pdf: all information about 3rd jobgroup. Should be mentioned in wage table as column titles. Focus only on normal / basic wage type tables f multiple tables exist with different kind of wage types - also for the next salary columns (letter, number or text)</t>
+  </si>
+  <si>
+    <t>pdf: all information about last jobgroup. Should be mentioned in wage table as column titles. Focus only on normal / basic wage type tables f multiple tables exist with different kind of wage types - also for the next salary columns (letter, number or text)"</t>
+  </si>
+  <si>
+    <t>pdf: end date on front page (date). Ex: 31/01/2023; 31/03/2019; 28/02/2014</t>
+  </si>
+  <si>
+    <t>pdf: end date on front page (date). Ex: 31/01/2023; 31/03/2019; 28/02/2015</t>
+  </si>
+  <si>
+    <t>pdf: end date on front page (date). Ex: 31/01/2023; 31/03/2019; 28/02/2016</t>
+  </si>
+  <si>
+    <t>pdf: end date on front page (date). Ex: 31/01/2023; 31/03/2019; 28/02/2017</t>
+  </si>
+  <si>
+    <t>pdf: end date on front page (date). Ex: 31/01/2023; 31/03/2019; 28/02/2018</t>
+  </si>
+  <si>
+    <t>pdf: end date on front page (date). Ex: 31/01/2023; 31/03/2019; 28/02/2019</t>
+  </si>
+  <si>
+    <t>pdf: end date on front page (date). Ex: 31/01/2023; 31/03/2019; 28/02/2020</t>
+  </si>
+  <si>
+    <t>pdf: end date on front page (date). Ex: 31/01/2023; 31/03/2019; 28/02/2021</t>
+  </si>
+  <si>
+    <t>pdf: end date on front page (date). Ex: 31/01/2023; 31/03/2019; 28/02/2022</t>
+  </si>
+  <si>
+    <t>pdf: end date on front page (date). Ex: 31/01/2023; 31/03/2019; 28/02/2023</t>
+  </si>
+  <si>
+    <t>pdf: start date on front page (date). Ex: 01/04/2019; 01/01/2017; 01/07/2021</t>
+  </si>
+  <si>
+    <t>pdf: start date on front page (date). Ex: 01/04/2019; 01/01/2017; 01/07/2018</t>
+  </si>
+  <si>
+    <t>pdf: start date on front page (date). Ex: 01/04/2019; 01/01/2017; 01/07/2019</t>
+  </si>
+  <si>
+    <t>pdf: start date on front page (date). Ex: 01/04/2019; 01/01/2017; 01/07/2020</t>
+  </si>
+  <si>
+    <t>pdf: start date on front page (date). Ex: 01/04/2019; 01/01/2017; 01/07/2022</t>
+  </si>
+  <si>
+    <t>pdf: start date on front page (date). Ex: 01/04/2019; 01/01/2017; 01/07/2023</t>
+  </si>
+  <si>
+    <t>pdf: start date on front page (date). Ex: 01/04/2019; 01/01/2017; 01/07/2024</t>
+  </si>
+  <si>
+    <t>pdf: start date on front page (date). Ex: 01/04/2019; 01/01/2017; 01/07/2025</t>
+  </si>
+  <si>
+    <t>pdf: start date on front page (date). Ex: 01/04/2019; 01/01/2017; 01/07/2026</t>
+  </si>
+  <si>
+    <t>pdf: start date on front page (date). Ex: 01/04/2019; 01/01/2017; 01/07/2027</t>
+  </si>
+  <si>
+    <t>pdf: all information about 1st jobgroup. Should be mentioned in wage table as column titles. Focus only on normal / basic wage type tables if multiple tables exist with different kind of wage types - also for the next salary columns (letter, number or text)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -569,6 +620,12 @@
       <color theme="1"/>
       <name val="Aptos Display"/>
       <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -1015,17 +1072,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03BF5F48-E2E4-AB45-AC3D-2386CAD72E8A}">
-  <dimension ref="A1:BS11"/>
+  <dimension ref="A1:BR11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:71" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:70" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -1054,17 +1111,17 @@
       <c r="J1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="L1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="4" t="s">
-        <v>38</v>
-      </c>
       <c r="M1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>11</v>
       </c>
       <c r="O1" s="4" t="s">
         <v>12</v>
@@ -1073,10 +1130,10 @@
         <v>13</v>
       </c>
       <c r="Q1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>15</v>
       </c>
       <c r="S1" s="4" t="s">
         <v>16</v>
@@ -1085,10 +1142,10 @@
         <v>17</v>
       </c>
       <c r="U1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="V1" s="4" t="s">
-        <v>19</v>
       </c>
       <c r="W1" s="4" t="s">
         <v>20</v>
@@ -1097,10 +1154,10 @@
         <v>21</v>
       </c>
       <c r="Y1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="Z1" s="4" t="s">
-        <v>23</v>
       </c>
       <c r="AA1" s="4" t="s">
         <v>24</v>
@@ -1109,10 +1166,10 @@
         <v>25</v>
       </c>
       <c r="AC1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="AD1" s="4" t="s">
-        <v>27</v>
       </c>
       <c r="AE1" s="4" t="s">
         <v>28</v>
@@ -1121,10 +1178,10 @@
         <v>29</v>
       </c>
       <c r="AG1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="4" t="s">
         <v>30</v>
-      </c>
-      <c r="AH1" s="4" t="s">
-        <v>31</v>
       </c>
       <c r="AI1" s="4" t="s">
         <v>32</v>
@@ -1133,25 +1190,25 @@
         <v>33</v>
       </c>
       <c r="AK1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="4" t="s">
         <v>34</v>
-      </c>
-      <c r="AL1" s="4" t="s">
-        <v>35</v>
       </c>
       <c r="AM1" s="4" t="s">
         <v>36</v>
       </c>
       <c r="AN1" s="4" t="s">
-        <v>37</v>
+        <v>108</v>
       </c>
       <c r="AO1" s="4" t="s">
-        <v>112</v>
+        <v>38</v>
       </c>
       <c r="AP1" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="AQ1" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="AQ1" s="4" t="s">
-        <v>86</v>
       </c>
       <c r="AR1" s="3" t="s">
         <v>40</v>
@@ -1165,7 +1222,7 @@
       <c r="AU1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AV1" s="3" t="s">
+      <c r="AV1" s="7" t="s">
         <v>44</v>
       </c>
       <c r="AW1" s="7" t="s">
@@ -1175,45 +1232,45 @@
         <v>46</v>
       </c>
       <c r="AY1" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="AZ1" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="AZ1" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="BA1" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="BB1" s="7" t="s">
+      <c r="BB1" s="8" t="s">
         <v>49</v>
       </c>
       <c r="BC1" s="8" t="s">
         <v>50</v>
       </c>
       <c r="BD1" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="BE1" s="8" t="s">
         <v>51</v>
-      </c>
-      <c r="BE1" s="8" t="s">
-        <v>72</v>
       </c>
       <c r="BF1" s="8" t="s">
         <v>52</v>
       </c>
       <c r="BG1" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="BH1" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="BH1" s="8" t="s">
-        <v>73</v>
-      </c>
       <c r="BI1" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="BJ1" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="BK1" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="BJ1" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="BK1" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="BL1" s="8" t="s">
+      <c r="BL1" s="6" t="s">
         <v>55</v>
       </c>
       <c r="BM1" s="6" t="s">
@@ -1231,749 +1288,747 @@
       <c r="BQ1" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="BR1" s="6" t="s">
+      <c r="BR1" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="BS1" s="9" t="s">
+    </row>
+    <row r="2" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G2" t="s">
+        <v>173</v>
+      </c>
+      <c r="H2" t="s">
+        <v>162</v>
+      </c>
+      <c r="J2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="2" spans="1:71" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>160</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="G2" t="s">
-        <v>63</v>
-      </c>
-      <c r="H2" t="s">
-        <v>64</v>
-      </c>
       <c r="K2" t="s">
-        <v>65</v>
+        <v>182</v>
       </c>
       <c r="L2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="M2" t="s">
-        <v>137</v>
+        <v>86</v>
       </c>
       <c r="N2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="O2" t="s">
         <v>90</v>
       </c>
       <c r="P2" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>89</v>
+      </c>
+      <c r="R2" t="s">
+        <v>88</v>
+      </c>
+      <c r="S2" t="s">
+        <v>91</v>
+      </c>
+      <c r="T2" t="s">
+        <v>134</v>
+      </c>
+      <c r="U2" t="s">
         <v>94</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="V2" t="s">
+        <v>93</v>
+      </c>
+      <c r="W2" t="s">
+        <v>95</v>
+      </c>
+      <c r="X2" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>136</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>100</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>101</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>137</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>102</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>104</v>
+      </c>
+      <c r="AJ2" t="s">
         <v>138</v>
       </c>
-      <c r="R2" t="s">
-        <v>92</v>
-      </c>
-      <c r="S2" t="s">
-        <v>93</v>
-      </c>
-      <c r="T2" t="s">
-        <v>95</v>
-      </c>
-      <c r="U2" t="s">
+      <c r="AK2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>105</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>107</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>115</v>
+      </c>
+      <c r="AU2" s="1"/>
+    </row>
+    <row r="3" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G3" t="s">
+        <v>174</v>
+      </c>
+      <c r="H3" t="s">
+        <v>163</v>
+      </c>
+      <c r="J3" t="s">
+        <v>62</v>
+      </c>
+      <c r="K3" t="s">
+        <v>159</v>
+      </c>
+      <c r="L3" t="s">
         <v>139</v>
       </c>
-      <c r="V2" t="s">
-        <v>97</v>
-      </c>
-      <c r="W2" t="s">
-        <v>98</v>
-      </c>
-      <c r="X2" t="s">
-        <v>99</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>140</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>100</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>101</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>102</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>141</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>103</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>104</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>105</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>142</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>106</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>107</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>108</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>143</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>109</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>110</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>111</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>113</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>118</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>119</v>
-      </c>
-      <c r="AV2" s="1"/>
-    </row>
-    <row r="3" spans="1:71" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>160</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="G3" t="s">
-        <v>63</v>
-      </c>
-      <c r="H3" t="s">
-        <v>64</v>
-      </c>
-      <c r="K3" t="s">
-        <v>65</v>
-      </c>
-      <c r="L3" t="s">
-        <v>144</v>
-      </c>
       <c r="M3" t="s">
-        <v>145</v>
+        <v>86</v>
       </c>
       <c r="N3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="O3" t="s">
         <v>90</v>
       </c>
       <c r="P3" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>89</v>
+      </c>
+      <c r="R3" t="s">
+        <v>88</v>
+      </c>
+      <c r="S3" t="s">
+        <v>91</v>
+      </c>
+      <c r="T3" t="s">
+        <v>141</v>
+      </c>
+      <c r="U3" t="s">
         <v>94</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="V3" t="s">
+        <v>93</v>
+      </c>
+      <c r="W3" t="s">
+        <v>95</v>
+      </c>
+      <c r="X3" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>143</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>100</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>101</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>144</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>103</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>102</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>145</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>106</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>105</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>107</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>109</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>114</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>153</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G4" t="s">
+        <v>175</v>
+      </c>
+      <c r="H4" t="s">
+        <v>164</v>
+      </c>
+      <c r="J4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" t="s">
+        <v>160</v>
+      </c>
+      <c r="L4" t="s">
         <v>146</v>
       </c>
-      <c r="R3" t="s">
-        <v>92</v>
-      </c>
-      <c r="S3" t="s">
-        <v>93</v>
-      </c>
-      <c r="T3" t="s">
-        <v>95</v>
-      </c>
-      <c r="U3" t="s">
-        <v>147</v>
-      </c>
-      <c r="V3" t="s">
-        <v>97</v>
-      </c>
-      <c r="W3" t="s">
-        <v>98</v>
-      </c>
-      <c r="X3" t="s">
-        <v>99</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>148</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>100</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>101</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>102</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>149</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>103</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>104</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>105</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>150</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>106</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>107</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>108</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>151</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>109</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>110</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>111</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>113</v>
-      </c>
-      <c r="AP3" t="s">
-        <v>118</v>
-      </c>
-      <c r="AQ3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="4" spans="1:71" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>160</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="G4" t="s">
-        <v>63</v>
-      </c>
-      <c r="H4" t="s">
-        <v>64</v>
-      </c>
-      <c r="K4" t="s">
-        <v>65</v>
-      </c>
-      <c r="L4" t="s">
-        <v>152</v>
-      </c>
       <c r="M4" t="s">
-        <v>153</v>
+        <v>86</v>
       </c>
       <c r="N4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="O4" t="s">
         <v>90</v>
       </c>
       <c r="P4" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>89</v>
+      </c>
+      <c r="R4" t="s">
+        <v>88</v>
+      </c>
+      <c r="S4" t="s">
+        <v>91</v>
+      </c>
+      <c r="T4" t="s">
+        <v>148</v>
+      </c>
+      <c r="U4" t="s">
         <v>94</v>
       </c>
-      <c r="Q4" t="s">
-        <v>154</v>
-      </c>
-      <c r="R4" t="s">
-        <v>92</v>
-      </c>
-      <c r="S4" t="s">
+      <c r="V4" t="s">
         <v>93</v>
       </c>
-      <c r="T4" t="s">
+      <c r="W4" t="s">
         <v>95</v>
       </c>
-      <c r="U4" t="s">
-        <v>155</v>
-      </c>
-      <c r="V4" t="s">
+      <c r="X4" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y4" t="s">
         <v>97</v>
       </c>
-      <c r="W4" t="s">
+      <c r="Z4" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA4" t="s">
         <v>98</v>
       </c>
-      <c r="X4" t="s">
+      <c r="AB4" t="s">
+        <v>150</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>100</v>
+      </c>
+      <c r="AD4" t="s">
         <v>99</v>
       </c>
-      <c r="Y4" t="s">
-        <v>156</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>100</v>
-      </c>
-      <c r="AA4" t="s">
+      <c r="AE4" t="s">
         <v>101</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AF4" t="s">
+        <v>151</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>103</v>
+      </c>
+      <c r="AH4" t="s">
         <v>102</v>
       </c>
-      <c r="AC4" t="s">
-        <v>157</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>103</v>
-      </c>
-      <c r="AE4" t="s">
+      <c r="AI4" t="s">
         <v>104</v>
       </c>
-      <c r="AF4" t="s">
+      <c r="AJ4" t="s">
+        <v>152</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>106</v>
+      </c>
+      <c r="AL4" t="s">
         <v>105</v>
       </c>
-      <c r="AG4" t="s">
-        <v>158</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>106</v>
-      </c>
-      <c r="AI4" t="s">
+      <c r="AM4" t="s">
         <v>107</v>
       </c>
-      <c r="AJ4" t="s">
-        <v>108</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>159</v>
-      </c>
-      <c r="AL4" t="s">
+      <c r="AN4" t="s">
         <v>109</v>
       </c>
-      <c r="AM4" t="s">
-        <v>110</v>
-      </c>
-      <c r="AN4" t="s">
-        <v>111</v>
-      </c>
       <c r="AO4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AP4" t="s">
-        <v>118</v>
-      </c>
-      <c r="AQ4" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
-    <row r="5" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G5" t="s">
+        <v>172</v>
+      </c>
+      <c r="H5" t="s">
+        <v>165</v>
+      </c>
+      <c r="J5" t="s">
+        <v>62</v>
+      </c>
+      <c r="K5" t="s">
+        <v>82</v>
+      </c>
+      <c r="L5" t="s">
+        <v>82</v>
+      </c>
+      <c r="M5" t="s">
+        <v>82</v>
+      </c>
+      <c r="N5" t="s">
+        <v>82</v>
+      </c>
+      <c r="O5" t="s">
+        <v>82</v>
+      </c>
+      <c r="P5" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>82</v>
+      </c>
+      <c r="R5" t="s">
+        <v>82</v>
+      </c>
+      <c r="S5" t="s">
+        <v>82</v>
+      </c>
+      <c r="T5" t="s">
+        <v>82</v>
+      </c>
+      <c r="U5" t="s">
+        <v>82</v>
+      </c>
+      <c r="V5" t="s">
+        <v>82</v>
+      </c>
+      <c r="W5" t="s">
+        <v>82</v>
+      </c>
+      <c r="X5" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>82</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>82</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>82</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>82</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>82</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>82</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>82</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>82</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>82</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>82</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>153</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G6" t="s">
+        <v>176</v>
+      </c>
+      <c r="H6" t="s">
+        <v>166</v>
+      </c>
+      <c r="J6" t="s">
+        <v>62</v>
+      </c>
+      <c r="K6" t="s">
+        <v>161</v>
+      </c>
+      <c r="L6" t="s">
+        <v>84</v>
+      </c>
+      <c r="M6" t="s">
+        <v>86</v>
+      </c>
+      <c r="N6" t="s">
         <v>85</v>
-      </c>
-      <c r="G5" t="s">
-        <v>63</v>
-      </c>
-      <c r="H5" t="s">
-        <v>64</v>
-      </c>
-      <c r="K5" t="s">
-        <v>65</v>
-      </c>
-      <c r="L5" t="s">
-        <v>85</v>
-      </c>
-      <c r="M5" t="s">
-        <v>85</v>
-      </c>
-      <c r="N5" t="s">
-        <v>85</v>
-      </c>
-      <c r="O5" t="s">
-        <v>85</v>
-      </c>
-      <c r="P5" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>85</v>
-      </c>
-      <c r="R5" t="s">
-        <v>85</v>
-      </c>
-      <c r="S5" t="s">
-        <v>85</v>
-      </c>
-      <c r="T5" t="s">
-        <v>85</v>
-      </c>
-      <c r="U5" t="s">
-        <v>85</v>
-      </c>
-      <c r="V5" t="s">
-        <v>85</v>
-      </c>
-      <c r="W5" t="s">
-        <v>85</v>
-      </c>
-      <c r="X5" t="s">
-        <v>85</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>85</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>85</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>85</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>85</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>85</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>85</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>85</v>
-      </c>
-      <c r="AF5" t="s">
-        <v>85</v>
-      </c>
-      <c r="AG5" t="s">
-        <v>85</v>
-      </c>
-      <c r="AH5" t="s">
-        <v>85</v>
-      </c>
-      <c r="AI5" t="s">
-        <v>85</v>
-      </c>
-      <c r="AJ5" t="s">
-        <v>85</v>
-      </c>
-      <c r="AK5" t="s">
-        <v>85</v>
-      </c>
-      <c r="AL5" t="s">
-        <v>85</v>
-      </c>
-      <c r="AM5" t="s">
-        <v>85</v>
-      </c>
-      <c r="AN5" t="s">
-        <v>85</v>
-      </c>
-      <c r="AO5" t="s">
-        <v>85</v>
-      </c>
-      <c r="AP5" t="s">
-        <v>85</v>
-      </c>
-      <c r="AQ5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="6" spans="1:71" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>160</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="G6" t="s">
-        <v>63</v>
-      </c>
-      <c r="H6" t="s">
-        <v>64</v>
-      </c>
-      <c r="K6" t="s">
-        <v>65</v>
-      </c>
-      <c r="L6" t="s">
-        <v>87</v>
-      </c>
-      <c r="M6" t="s">
-        <v>88</v>
-      </c>
-      <c r="N6" t="s">
-        <v>89</v>
       </c>
       <c r="O6" t="s">
         <v>90</v>
       </c>
       <c r="P6" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>89</v>
+      </c>
+      <c r="R6" t="s">
+        <v>88</v>
+      </c>
+      <c r="S6" t="s">
+        <v>91</v>
+      </c>
+      <c r="T6" t="s">
+        <v>92</v>
+      </c>
+      <c r="U6" t="s">
         <v>94</v>
       </c>
-      <c r="Q6" t="s">
-        <v>91</v>
-      </c>
-      <c r="R6" t="s">
-        <v>92</v>
-      </c>
-      <c r="S6" t="s">
+      <c r="V6" t="s">
         <v>93</v>
       </c>
-      <c r="T6" t="s">
+      <c r="W6" t="s">
         <v>95</v>
       </c>
-      <c r="U6" t="s">
+      <c r="X6" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z6" t="s">
         <v>96</v>
       </c>
-      <c r="V6" t="s">
-        <v>97</v>
-      </c>
-      <c r="W6" t="s">
+      <c r="AA6" t="s">
         <v>98</v>
       </c>
-      <c r="X6" t="s">
+      <c r="AB6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>100</v>
+      </c>
+      <c r="AD6" t="s">
         <v>99</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="AE6" t="s">
+        <v>101</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>112</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>103</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>102</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>113</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>106</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>105</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>107</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>109</v>
+      </c>
+      <c r="AO6" t="s">
         <v>114</v>
       </c>
-      <c r="Z6" t="s">
-        <v>100</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>101</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>102</v>
-      </c>
-      <c r="AC6" t="s">
+      <c r="AP6" t="s">
         <v>115</v>
       </c>
-      <c r="AD6" t="s">
-        <v>103</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>104</v>
-      </c>
-      <c r="AF6" t="s">
-        <v>105</v>
-      </c>
-      <c r="AG6" t="s">
+    </row>
+    <row r="7" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>153</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G7" t="s">
+        <v>177</v>
+      </c>
+      <c r="H7" t="s">
+        <v>167</v>
+      </c>
+      <c r="J7" t="s">
+        <v>62</v>
+      </c>
+      <c r="AQ7" t="s">
         <v>116</v>
       </c>
-      <c r="AH6" t="s">
-        <v>106</v>
-      </c>
-      <c r="AI6" t="s">
-        <v>107</v>
-      </c>
-      <c r="AJ6" t="s">
-        <v>108</v>
-      </c>
-      <c r="AK6" t="s">
+      <c r="AR7" t="s">
         <v>117</v>
       </c>
-      <c r="AL6" t="s">
-        <v>109</v>
-      </c>
-      <c r="AM6" t="s">
-        <v>110</v>
-      </c>
-      <c r="AN6" t="s">
-        <v>111</v>
-      </c>
-      <c r="AO6" t="s">
-        <v>113</v>
-      </c>
-      <c r="AP6" t="s">
+      <c r="AS7" t="s">
         <v>118</v>
       </c>
-      <c r="AQ6" t="s">
+      <c r="AT7" t="s">
         <v>119</v>
       </c>
+      <c r="AU7" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="7" spans="1:71" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>160</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="G7" t="s">
+    <row r="8" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>153</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G8" t="s">
+        <v>178</v>
+      </c>
+      <c r="H8" t="s">
+        <v>168</v>
+      </c>
+      <c r="J8" t="s">
+        <v>62</v>
+      </c>
+      <c r="AV8" t="s">
+        <v>121</v>
+      </c>
+      <c r="AW8" t="s">
         <v>63</v>
       </c>
-      <c r="H7" t="s">
+      <c r="AX8" t="s">
         <v>64</v>
       </c>
-      <c r="K7" t="s">
+      <c r="AY8" t="s">
         <v>65</v>
       </c>
-      <c r="AR7" t="s">
-        <v>120</v>
-      </c>
-      <c r="AS7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AT7" t="s">
+      <c r="AZ8" t="s">
+        <v>67</v>
+      </c>
+      <c r="BA8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>153</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G9" t="s">
+        <v>179</v>
+      </c>
+      <c r="H9" t="s">
+        <v>169</v>
+      </c>
+      <c r="J9" t="s">
+        <v>62</v>
+      </c>
+      <c r="BB9" t="s">
         <v>122</v>
       </c>
-      <c r="AU7" t="s">
+      <c r="BC9" t="s">
         <v>123</v>
       </c>
-      <c r="AV7" t="s">
+      <c r="BD9" t="s">
         <v>124</v>
       </c>
+      <c r="BE9" t="s">
+        <v>125</v>
+      </c>
+      <c r="BF9" t="s">
+        <v>126</v>
+      </c>
+      <c r="BG9" t="s">
+        <v>127</v>
+      </c>
+      <c r="BH9" t="s">
+        <v>128</v>
+      </c>
+      <c r="BI9" t="s">
+        <v>129</v>
+      </c>
+      <c r="BJ9" t="s">
+        <v>74</v>
+      </c>
+      <c r="BK9" t="s">
+        <v>73</v>
+      </c>
     </row>
-    <row r="8" spans="1:71" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>160</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="G8" t="s">
-        <v>63</v>
-      </c>
-      <c r="H8" t="s">
-        <v>64</v>
-      </c>
-      <c r="K8" t="s">
-        <v>65</v>
-      </c>
-      <c r="AW8" t="s">
-        <v>125</v>
-      </c>
-      <c r="AX8" t="s">
-        <v>66</v>
-      </c>
-      <c r="AY8" t="s">
-        <v>67</v>
-      </c>
-      <c r="AZ8" t="s">
-        <v>68</v>
-      </c>
-      <c r="BA8" t="s">
-        <v>70</v>
-      </c>
-      <c r="BB8" t="s">
-        <v>71</v>
+    <row r="10" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>153</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G10" t="s">
+        <v>180</v>
+      </c>
+      <c r="H10" t="s">
+        <v>170</v>
+      </c>
+      <c r="J10" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL10" t="s">
+        <v>75</v>
+      </c>
+      <c r="BM10" t="s">
+        <v>130</v>
+      </c>
+      <c r="BN10" t="s">
+        <v>131</v>
+      </c>
+      <c r="BO10" t="s">
+        <v>76</v>
+      </c>
+      <c r="BP10" t="s">
+        <v>77</v>
+      </c>
+      <c r="BQ10" t="s">
+        <v>78</v>
       </c>
     </row>
-    <row r="9" spans="1:71" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>160</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="G9" t="s">
-        <v>63</v>
-      </c>
-      <c r="H9" t="s">
-        <v>64</v>
-      </c>
-      <c r="K9" t="s">
-        <v>65</v>
-      </c>
-      <c r="BC9" t="s">
-        <v>126</v>
-      </c>
-      <c r="BD9" t="s">
-        <v>127</v>
-      </c>
-      <c r="BE9" t="s">
-        <v>128</v>
-      </c>
-      <c r="BF9" t="s">
-        <v>129</v>
-      </c>
-      <c r="BG9" t="s">
-        <v>130</v>
-      </c>
-      <c r="BH9" t="s">
-        <v>131</v>
-      </c>
-      <c r="BI9" t="s">
-        <v>132</v>
-      </c>
-      <c r="BJ9" t="s">
-        <v>133</v>
-      </c>
-      <c r="BK9" t="s">
-        <v>77</v>
-      </c>
-      <c r="BL9" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="10" spans="1:71" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>160</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="G10" t="s">
-        <v>63</v>
-      </c>
-      <c r="H10" t="s">
-        <v>64</v>
-      </c>
-      <c r="K10" t="s">
-        <v>65</v>
-      </c>
-      <c r="BM10" t="s">
-        <v>78</v>
-      </c>
-      <c r="BN10" t="s">
-        <v>134</v>
-      </c>
-      <c r="BO10" t="s">
-        <v>135</v>
-      </c>
-      <c r="BP10" t="s">
+    <row r="11" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>153</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G11" t="s">
+        <v>181</v>
+      </c>
+      <c r="H11" t="s">
+        <v>171</v>
+      </c>
+      <c r="J11" t="s">
+        <v>62</v>
+      </c>
+      <c r="BR11" t="s">
         <v>79</v>
-      </c>
-      <c r="BQ10" t="s">
-        <v>80</v>
-      </c>
-      <c r="BR10" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="11" spans="1:71" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>160</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="G11" t="s">
-        <v>63</v>
-      </c>
-      <c r="H11" t="s">
-        <v>64</v>
-      </c>
-      <c r="K11" t="s">
-        <v>65</v>
-      </c>
-      <c r="BS11" t="s">
-        <v>82</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="11" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>

--- a/inputExcel/250702 AI information matrix.xlsx
+++ b/inputExcel/250702 AI information matrix.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lorenzpiazolo/Documents/Python/CAOsDataExtraction/inputExcel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F34B9A8-6267-0544-87E8-E1ED4ABFFBE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5929C272-379E-944A-8B41-BD304F0C67AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="0" windowWidth="22240" windowHeight="16680" xr2:uid="{DE6B04FB-4535-6B4B-8490-9A662190B816}"/>
+    <workbookView xWindow="4340" yWindow="500" windowWidth="16000" windowHeight="16080" xr2:uid="{DE6B04FB-4535-6B4B-8490-9A662190B816}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="150">
   <si>
     <t>CAO</t>
   </si>
@@ -167,12 +167,6 @@
     <t>retire_age_plus</t>
   </si>
   <si>
-    <t>age_group</t>
-  </si>
-  <si>
-    <t>maternity_leave_weeks</t>
-  </si>
-  <si>
     <t>maternity_pay</t>
   </si>
   <si>
@@ -188,21 +182,12 @@
     <t>term_period_employer</t>
   </si>
   <si>
-    <t>term_period_employer_unit</t>
-  </si>
-  <si>
     <t>term_period_worker</t>
   </si>
   <si>
-    <t>term_period_worker_unit</t>
-  </si>
-  <si>
     <t>probation_period</t>
   </si>
   <si>
-    <t>duration_worked</t>
-  </si>
-  <si>
     <t>overtime_compensation</t>
   </si>
   <si>
@@ -224,374 +209,290 @@
     <t>training</t>
   </si>
   <si>
-    <t>In pdf name (website: Dossier) (no or yes)</t>
-  </si>
-  <si>
-    <t>pdf: all information there is about maternity, kids and aoption leave pay (text or number, percent of original pay)</t>
-  </si>
-  <si>
-    <t>pdf: all information there is about maternity, kids and aoption, which is not included in the 2 previous columns (text)</t>
-  </si>
-  <si>
-    <t>pdf: all information there is about vacation and holiday duration (number or text)</t>
-  </si>
-  <si>
     <t>vacation_time</t>
   </si>
   <si>
-    <t>pdf: all information there is about vacation and holiday duration unit (text: usually hours or days per year but can be something else as well)</t>
-  </si>
-  <si>
-    <t>pdf: all information there is about vacation and holiday which is not mentioned in the previous 2 columns (text)</t>
-  </si>
-  <si>
     <t>term_employer_note</t>
   </si>
   <si>
     <t>term_worker_note</t>
   </si>
   <si>
-    <t>probation_period_unit</t>
-  </si>
-  <si>
     <t>probation_note</t>
   </si>
   <si>
-    <t>pdf: all information about duration worked of workers - usually no information found (text)</t>
-  </si>
-  <si>
-    <t>pdf: all information about probation of new workers not mentioned in the previous 2 columns (text)</t>
-  </si>
-  <si>
-    <t>pdf: all information about overtime pay / compensation - important include unit, usually euro per hour (text)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pdf: all information about night, evening, morning or day shifts (text) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">pdf: all information about the minimum allowance of overtime (text) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">pdf: all information about the maximum allowance of overtime (text) </t>
-  </si>
-  <si>
-    <t>pdf: all information about training of workers and emplyers (text)</t>
-  </si>
-  <si>
-    <t>Wage Information</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pension Information </t>
-  </si>
-  <si>
     <t>…</t>
   </si>
   <si>
     <t>salary_age_group</t>
   </si>
   <si>
-    <t>pdf: salary of last jobgroup, should be last wage, in 1st wage table. As in jobgroup focus on normal / basic wage type tables (number)</t>
-  </si>
-  <si>
-    <t>pdf: start date of 1st wage table. As in jobgroup focus on normal / basic wage type tables (date)</t>
-  </si>
-  <si>
-    <t>pdf: unit of salary of 1st wage table. As in jobgroup focus on normal / basic wage type tables (prefered hourly if it exists in multiple units, which sometime happens if there exist multiple tables)</t>
-  </si>
-  <si>
-    <t>pdf: salary of last jobgroup, should be last wage, in 2nd wage table. As in jobgroup focus on normal / basic wage type tables (number)</t>
-  </si>
-  <si>
-    <t>pdf: start date of 2nd wage table. As in jobgroup focus on normal / basic wage type tables (date)</t>
-  </si>
-  <si>
-    <t>pdf: unit of salary of 2nd wage table. As in jobgroup focus on normal / basic wage type tables (prefered hourly if it exists in multiple units, which sometime happens if there exist multiple tables)</t>
-  </si>
-  <si>
-    <t>pdf: increment / increase of salary of 1st wage table. As in jobgroup focus on normal / basic wage type tables (number in percent)</t>
-  </si>
-  <si>
-    <t>pdf: increment / increase of salary of 2nd wage table. As in jobgroup focus on normal / basic wage type tables (number in percent)</t>
-  </si>
-  <si>
-    <t>pdf: salary of last jobgroup, should be last wage, in 3rd wage table. As in jobgroup focus on normal / basic wage type tables (number)</t>
-  </si>
-  <si>
-    <t>pdf: start date of 3rd wage table. As in jobgroup focus on normal / basic wage type tables (date)</t>
-  </si>
-  <si>
-    <t>pdf: unit of salary of 3rd wage table. As in jobgroup focus on normal / basic wage type tables (prefered hourly if it exists in multiple units, which sometime happens if there exist multiple tables)</t>
-  </si>
-  <si>
-    <t>pdf: increment / increase of salary of 3rd wage table. As in jobgroup focus on normal / basic wage type tables (number in percent)</t>
-  </si>
-  <si>
-    <t>pdf: start date of 4th wage table. As in jobgroup focus on normal / basic wage type tables (date)</t>
-  </si>
-  <si>
-    <t>pdf: unit of salary of 4th wage table. As in jobgroup focus on normal / basic wage type tables (prefered hourly if it exists in multiple units, which sometime happens if there exist multiple tables)</t>
-  </si>
-  <si>
-    <t>pdf: increment / increase of salary of 4th wage table. As in jobgroup focus on normal / basic wage type tables (number in percent)</t>
-  </si>
-  <si>
-    <t>pdf: start date of 5th wage table. As in jobgroup focus on normal / basic wage type tables (date)</t>
-  </si>
-  <si>
-    <t>pdf: unit of salary of 5th wage table. As in jobgroup focus on normal / basic wage type tables (prefered hourly if it exists in multiple units, which sometime happens if there exist multiple tables)</t>
-  </si>
-  <si>
-    <t>pdf: increment / increase of salary of 5th wage table. As in jobgroup focus on normal / basic wage type tables (number in percent)</t>
-  </si>
-  <si>
-    <t>pdf: start date of 6th wage table. As in jobgroup focus on normal / basic wage type tables (date)</t>
-  </si>
-  <si>
-    <t>pdf: unit of salary of 6th wage table. As in jobgroup focus on normal / basic wage type tables (prefered hourly if it exists in multiple units, which sometime happens if there exist multiple tables)</t>
-  </si>
-  <si>
-    <t>pdf: increment / increase of salary of 6th wage table. As in jobgroup focus on normal / basic wage type tables (number in percent)</t>
-  </si>
-  <si>
-    <t>pdf: start date of 7th wage table. As in jobgroup focus on normal / basic wage type tables (date)</t>
-  </si>
-  <si>
-    <t>pdf: unit of salary of 7th wage table. As in jobgroup focus on normal / basic wage type tables (prefered hourly if it exists in multiple units, which sometime happens if there exist multiple tables)</t>
-  </si>
-  <si>
-    <t>pdf: increment / increase of salary of 7th wage table. As in jobgroup focus on normal / basic wage type tables (number in percent)</t>
-  </si>
-  <si>
     <t>more_salaries</t>
   </si>
   <si>
-    <t>pdf: do more basic / normal salary tables exist than 7 (yes or no)</t>
-  </si>
-  <si>
-    <t>pdf: salary of last jobgroup, should be last wage, in 4th wage table. As in jobgroup focus on normal / basic wage type tables (number)</t>
-  </si>
-  <si>
-    <t>pdf: salary of last jobgroup, should be last wage, in 5th wage table. As in jobgroup focus on normal / basic wage type tables (number)</t>
-  </si>
-  <si>
-    <t>pdf: salary of last jobgroup, should be last wage, in 6th wage table. As in jobgroup focus on normal / basic wage type tables (number)</t>
-  </si>
-  <si>
-    <t>pdf: salary of last jobgroup, should be last wage, in 7th wage table. As in jobgroup focus on normal / basic wage type tables (number)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pdf: what type of worker. Usually but not always next to wage table. Focus on normal / basic wage type (text) </t>
-  </si>
-  <si>
-    <t>pdf: we only want to look at 21 years and olders. Hence usually we should have "21 years and olders"</t>
-  </si>
-  <si>
-    <t>pdf: Everything related to the basic pension premium. Help: search for the words in dutch realted to AOW, pension, scheme. (text)</t>
-  </si>
-  <si>
-    <t>pdf: Everything related to the plus pension premium. Help: search for the words in dutch realted to AOW, pension, scheme. (text)</t>
-  </si>
-  <si>
-    <t>pdf: Everything related to the retirement age of the basic pension. Help: search for the words in dutch realted to AOW, pension, scheme. (text)</t>
-  </si>
-  <si>
-    <t>pdf: Everything related to the retirement age of the plus pension. Help: search for the words in dutch realted to AOW, pension, scheme. (text)</t>
-  </si>
-  <si>
-    <t>pdf: Everything related to the age group eligible to the pensions. Help: search for the words in dutch realted to AOW, pension, scheme. (text)</t>
-  </si>
-  <si>
-    <t>pdf: all information there is about maternity, kids and aoption leave duration (text or number) - if its not in weeks but days or hours mention it</t>
-  </si>
-  <si>
-    <t>pdf: All information about the unit of the notice period for employer-initiated contract termination (text or number).</t>
-  </si>
-  <si>
-    <t>pdf: All information about the notice period for employer-initiated contract termination (month, days, weeks, years).</t>
-  </si>
-  <si>
-    <t>pdf: All information about employer-initiated contract termination not mentioned in the previous 2 columns (text)</t>
-  </si>
-  <si>
-    <t>pdf: All information about the unit of the notice period for worker-initiated contract termination (text or number).</t>
-  </si>
-  <si>
-    <t>pdf: All information about the notice period for worker-initiated contract termination (month, days, weeks, years).</t>
-  </si>
-  <si>
-    <t>pdf: All information about worker-initiated contract termination not mentioned in the previous 2 columns (text)</t>
-  </si>
-  <si>
-    <t>pdf: all information about probation period of new workers (text or number)</t>
-  </si>
-  <si>
-    <t>pdf: all information about unit of probation period of new workers (text or number)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pdf: all information about maximum of hours allowed to work -  total hours or overtime hours but mention which one and regarding what time: per week, day, hour, year? (text) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">pdf: all information about minimum of hours, days, weeks, months needed to work per day, week, month or year (text) </t>
-  </si>
-  <si>
-    <t>pdf: salary of 1st jobgroup, should be 1st wage, in 1st wage table. As in jobgroup focus on normal / basic wage type tables (number)</t>
-  </si>
-  <si>
-    <t>pdf: salary of 1st jobgroup, should be 1st wage, in 2nd wage table. As in jobgroup focus on normal / basic wage type tables (number)</t>
-  </si>
-  <si>
-    <t>pdf: salary of 1st jobgroup, should be 1st wage, in 3rd wage table. As in jobgroup focus on normal / basic wage type tables (number)</t>
-  </si>
-  <si>
-    <t>pdf: salary of 1st jobgroup, should be 1st wage, in 4th wage table. As in jobgroup focus on normal / basic wage type tables (number)</t>
-  </si>
-  <si>
-    <t>pdf: salary of 1st jobgroup, should be 1st wage, in 5th wage table. As in jobgroup focus on normal / basic wage type tables (number)</t>
-  </si>
-  <si>
-    <t>pdf: salary of 1st jobgroup, should be 1st wage, in 6th wage table. As in jobgroup focus on normal / basic wage type tables (number)</t>
-  </si>
-  <si>
-    <t>pdf: salary of 1st jobgroup, should be 1st wage, in 7th wage table. As in jobgroup focus on normal / basic wage type tables (number)</t>
-  </si>
-  <si>
-    <t>pdf: salary of 2nd jobgroup, should be 2nd wage, in 1st wage table. As in jobgroup focus on normal / basic wage type tables (number)</t>
-  </si>
-  <si>
-    <t>pdf: salary of 2nd jobgroup, should be 2nd wage, in 2nd wage table. As in jobgroup focus on normal / basic wage type tables (number)</t>
-  </si>
-  <si>
-    <t>pdf: salary of 2nd jobgroup, should be 2nd wage, in 3rd wage table. As in jobgroup focus on normal / basic wage type tables (number)</t>
-  </si>
-  <si>
-    <t>pdf: salary of 2nd jobgroup, should be 2nd wage, in 4th wage table. As in jobgroup focus on normal / basic wage type tables (number)</t>
-  </si>
-  <si>
-    <t>pdf: salary of 2nd jobgroup, should be 2nd wage, in 5th wage table. As in jobgroup focus on normal / basic wage type tables (number)</t>
-  </si>
-  <si>
-    <t>pdf: salary of 2nd jobgroup, should be 2nd wage, in 6th wage table. As in jobgroup focus on normal / basic wage type tables (number)</t>
-  </si>
-  <si>
-    <t>pdf: salary of 2nd jobgroup, should be 2nd wage, in 7th wage table. As in jobgroup focus on normal / basic wage type tables (number)</t>
-  </si>
-  <si>
-    <t>pdf: salary of 3rd jobgroup, should be 3rd wage, in 1st wage table. As in jobgroup focus on normal / basic wage type tables (number)</t>
-  </si>
-  <si>
-    <t>pdf: salary of 3rd jobgroup, should be 3rd wage, in 2nd wage table. As in jobgroup focus on normal / basic wage type tables (number)</t>
-  </si>
-  <si>
-    <t>pdf: salary of 3rd jobgroup, should be 3rd wage, in 3rd wage table. As in jobgroup focus on normal / basic wage type tables (number)</t>
-  </si>
-  <si>
-    <t>pdf: salary of 3rd jobgroup, should be 3rd wage, in 4th wage table. As in jobgroup focus on normal / basic wage type tables (number)</t>
-  </si>
-  <si>
-    <t>pdf: salary of 3rd jobgroup, should be 3rd wage, in 5th wage table. As in jobgroup focus on normal / basic wage type tables (number)</t>
-  </si>
-  <si>
-    <t>pdf: salary of 3rd jobgroup, should be 3rd wage, in 6th wage table. As in jobgroup focus on normal / basic wage type tables (number)</t>
-  </si>
-  <si>
-    <t>pdf: salary of 3rd jobgroup, should be 3rd wage, in 7th wage table. As in jobgroup focus on normal / basic wage type tables (number)</t>
-  </si>
-  <si>
     <t>pdf file name</t>
   </si>
   <si>
     <t>File_name</t>
   </si>
   <si>
-    <t>Leave Information</t>
-  </si>
-  <si>
-    <t>Termination Information</t>
-  </si>
-  <si>
-    <t>Overtime Information</t>
-  </si>
-  <si>
-    <t>Training Information</t>
-  </si>
-  <si>
-    <t>pdf: all information about 2nd jobgroup. Should be mentioned in wage table as column titles. Focus only on normal / basic wage type tables f multiple tables exist with different kind of wage types - also for the next salary columns (letter, number or text)</t>
-  </si>
-  <si>
-    <t>pdf: all information about 3rd jobgroup. Should be mentioned in wage table as column titles. Focus only on normal / basic wage type tables f multiple tables exist with different kind of wage types - also for the next salary columns (letter, number or text)</t>
-  </si>
-  <si>
-    <t>pdf: all information about last jobgroup. Should be mentioned in wage table as column titles. Focus only on normal / basic wage type tables f multiple tables exist with different kind of wage types - also for the next salary columns (letter, number or text)"</t>
-  </si>
-  <si>
-    <t>pdf: end date on front page (date). Ex: 31/01/2023; 31/03/2019; 28/02/2014</t>
-  </si>
-  <si>
-    <t>pdf: end date on front page (date). Ex: 31/01/2023; 31/03/2019; 28/02/2015</t>
-  </si>
-  <si>
-    <t>pdf: end date on front page (date). Ex: 31/01/2023; 31/03/2019; 28/02/2016</t>
-  </si>
-  <si>
-    <t>pdf: end date on front page (date). Ex: 31/01/2023; 31/03/2019; 28/02/2017</t>
-  </si>
-  <si>
-    <t>pdf: end date on front page (date). Ex: 31/01/2023; 31/03/2019; 28/02/2018</t>
-  </si>
-  <si>
-    <t>pdf: end date on front page (date). Ex: 31/01/2023; 31/03/2019; 28/02/2019</t>
-  </si>
-  <si>
-    <t>pdf: end date on front page (date). Ex: 31/01/2023; 31/03/2019; 28/02/2020</t>
-  </si>
-  <si>
-    <t>pdf: end date on front page (date). Ex: 31/01/2023; 31/03/2019; 28/02/2021</t>
-  </si>
-  <si>
-    <t>pdf: end date on front page (date). Ex: 31/01/2023; 31/03/2019; 28/02/2022</t>
-  </si>
-  <si>
-    <t>pdf: end date on front page (date). Ex: 31/01/2023; 31/03/2019; 28/02/2023</t>
-  </si>
-  <si>
-    <t>pdf: start date on front page (date). Ex: 01/04/2019; 01/01/2017; 01/07/2021</t>
-  </si>
-  <si>
-    <t>pdf: start date on front page (date). Ex: 01/04/2019; 01/01/2017; 01/07/2018</t>
-  </si>
-  <si>
-    <t>pdf: start date on front page (date). Ex: 01/04/2019; 01/01/2017; 01/07/2019</t>
-  </si>
-  <si>
-    <t>pdf: start date on front page (date). Ex: 01/04/2019; 01/01/2017; 01/07/2020</t>
-  </si>
-  <si>
-    <t>pdf: start date on front page (date). Ex: 01/04/2019; 01/01/2017; 01/07/2022</t>
-  </si>
-  <si>
-    <t>pdf: start date on front page (date). Ex: 01/04/2019; 01/01/2017; 01/07/2023</t>
-  </si>
-  <si>
-    <t>pdf: start date on front page (date). Ex: 01/04/2019; 01/01/2017; 01/07/2024</t>
-  </si>
-  <si>
-    <t>pdf: start date on front page (date). Ex: 01/04/2019; 01/01/2017; 01/07/2025</t>
-  </si>
-  <si>
-    <t>pdf: start date on front page (date). Ex: 01/04/2019; 01/01/2017; 01/07/2026</t>
-  </si>
-  <si>
-    <t>pdf: start date on front page (date). Ex: 01/04/2019; 01/01/2017; 01/07/2027</t>
-  </si>
-  <si>
-    <t>pdf: all information about 1st jobgroup. Should be mentioned in wage table as column titles. Focus only on normal / basic wage type tables if multiple tables exist with different kind of wage types - also for the next salary columns (letter, number or text)</t>
+    <t>pdf file name (text).</t>
+  </si>
+  <si>
+    <t>In pdf file name. (boolean: Yes/No). Ex: Yes; No</t>
+  </si>
+  <si>
+    <t>Wage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pension </t>
+  </si>
+  <si>
+    <t>Leave</t>
+  </si>
+  <si>
+    <t>Termination</t>
+  </si>
+  <si>
+    <t>Overtime</t>
+  </si>
+  <si>
+    <t>Training</t>
+  </si>
+  <si>
+    <t>Salary of the first job group listed in the first wage table. This is usually the first wage in that table. (number). Ex: 13,17; 21,59; 9,58</t>
+  </si>
+  <si>
+    <t>Salary of the second job group listed in the first wage table. This is usually the first wage in that table. (number). Ex: 13,17; 21,59; 9,58</t>
+  </si>
+  <si>
+    <t>Salary of the third job group listed in the first wage table. This is usually the first wage in that table. (number). Ex: 13,17; 21,59; 9,58</t>
+  </si>
+  <si>
+    <t>Unit of the salary values in the first wage table. (text). Ex: hourly; monthly</t>
+  </si>
+  <si>
+    <t>start date of contract usually on front page (date in dd/mm/yyyy format). Ex: 01/04/2019; 01/01/2017; 01/07/2018</t>
+  </si>
+  <si>
+    <t>end date of contract usually on front page (date in dd/mm/yyyy format). Ex: 31/01/2023; 31/03/2019; 28/02/2014</t>
+  </si>
+  <si>
+    <t>start date of first wage table (date in dd/mm/yyyy format). Ex: 01/01/2018; 01/01/2017; 01/07/2010</t>
+  </si>
+  <si>
+    <t>Percentage increase of salaries in the first wage table. (number with % - may appear outside the table, often near the Dutch words for increase such as “verhoging” or “loonsverhoging”). Ex: 1%; 3%; 10,5%</t>
+  </si>
+  <si>
+    <t>Salary of the first job group listed in the second wage table. This is usually the first wage in that table. (number). Ex: 13,17; 21,59; 9,58</t>
+  </si>
+  <si>
+    <t>Salary of the second job group listed in the second wage table. This is usually the first wage in that table. (number). Ex: 13,17; 21,59; 9,58</t>
+  </si>
+  <si>
+    <t>Salary of the third job group listed in the second wage table. This is usually the first wage in that table. (number). Ex: 13,17; 21,59; 9,58</t>
+  </si>
+  <si>
+    <t>Unit of the salary values in the second wage table. (text). Ex: hourly; monthly</t>
+  </si>
+  <si>
+    <t>start date of second wage table (date in dd/mm/yyyy format). Ex: 01/01/2018; 01/01/2017; 01/07/2010</t>
+  </si>
+  <si>
+    <t>Percentage increase of salaries in the second wage table. (number with % - may appear outside the table, often near the Dutch words for increase such as “verhoging” or “loonsverhoging”). Ex: 1%; 3%; 10,5%</t>
+  </si>
+  <si>
+    <t>Salary of the first job group listed in the third wage table. This is usually the first wage in that table. (number). Ex: 13,17; 21,59; 9,58</t>
+  </si>
+  <si>
+    <t>Salary of the second job group listed in the third wage table. This is usually the first wage in that table. (number). Ex: 13,17; 21,59; 9,58</t>
+  </si>
+  <si>
+    <t>Salary of the third job group listed in the third wage table. This is usually the first wage in that table. (number). Ex: 13,17; 21,59; 9,58</t>
+  </si>
+  <si>
+    <t>Unit of the salary values in the third wage table. (text). Ex: hourly; monthly</t>
+  </si>
+  <si>
+    <t>start date of third wage table (date in dd/mm/yyyy format). Ex: 01/01/2018; 01/01/2017; 01/07/2010</t>
+  </si>
+  <si>
+    <t>Percentage increase of salaries in the third wage table. (number with % - may appear outside the table, often near the Dutch words for increase such as “verhoging” or “loonsverhoging”). Ex: 1%; 3%; 10,5%</t>
+  </si>
+  <si>
+    <t>Salary of the first job group listed in the fourth wage table. This is usually the first wage in that table. (number). Ex: 13,17; 21,59; 9,58</t>
+  </si>
+  <si>
+    <t>Salary of the second job group listed in the fourth wage table. This is usually the first wage in that table. (number). Ex: 13,17; 21,59; 9,58</t>
+  </si>
+  <si>
+    <t>Salary of the third job group listed in the fourth wage table. This is usually the first wage in that table. (number). Ex: 13,17; 21,59; 9,58</t>
+  </si>
+  <si>
+    <t>Unit of the salary values in the fourth wage table. (text). Ex: hourly; monthly</t>
+  </si>
+  <si>
+    <t>start date of fourth wage table (date in dd/mm/yyyy format). Ex: 01/01/2018; 01/01/2017; 01/07/2010</t>
+  </si>
+  <si>
+    <t>Percentage increase of salaries in the fourth wage table. (number with % - may appear outside the table, often near the Dutch words for increase such as “verhoging” or “loonsverhoging”). Ex: 1%; 3%; 10,5%</t>
+  </si>
+  <si>
+    <t>Salary of the first job group listed in the fifth wage table. This is usually the first wage in that table. (number). Ex: 13,17; 21,59; 9,58</t>
+  </si>
+  <si>
+    <t>Salary of the second job group listed in the fifth wage table. This is usually the first wage in that table. (number). Ex: 13,17; 21,59; 9,58</t>
+  </si>
+  <si>
+    <t>Salary of the third job group listed in the fifth wage table. This is usually the first wage in that table. (number). Ex: 13,17; 21,59; 9,58</t>
+  </si>
+  <si>
+    <t>Unit of the salary values in the fifth wage table. (text). Ex: hourly; monthly</t>
+  </si>
+  <si>
+    <t>start date of fifth wage table (date in dd/mm/yyyy format). Ex: 01/01/2018; 01/01/2017; 01/07/2010</t>
+  </si>
+  <si>
+    <t>Percentage increase of salaries in the fifth wage table. (number with % - may appear outside the table, often near the Dutch words for increase such as “verhoging” or “loonsverhoging”). Ex: 1%; 3%; 10,5%</t>
+  </si>
+  <si>
+    <t>Salary of the first job group listed in the sixth wage table. This is usually the first wage in that table. (number). Ex: 13,17; 21,59; 9,58</t>
+  </si>
+  <si>
+    <t>Salary of the second job group listed in the sixth wage table. This is usually the first wage in that table. (number). Ex: 13,17; 21,59; 9,58</t>
+  </si>
+  <si>
+    <t>Salary of the third job group listed in the sixth wage table. This is usually the first wage in that table. (number). Ex: 13,17; 21,59; 9,58</t>
+  </si>
+  <si>
+    <t>Unit of the salary values in the sixth wage table. (text). Ex: hourly; monthly</t>
+  </si>
+  <si>
+    <t>start date of sixth wage table (date in dd/mm/yyyy format). Ex: 01/01/2018; 01/01/2017; 01/07/2010</t>
+  </si>
+  <si>
+    <t>Percentage increase of salaries in the sixth wage table. (number with % - may appear outside the table, often near the Dutch words for increase such as “verhoging” or “loonsverhoging”). Ex: 1%; 3%; 10,5%</t>
+  </si>
+  <si>
+    <t>Salary of the first job group listed in the seventh wage table. This is usually the first wage in that table. (number). Ex: 13,17; 21,59; 9,58</t>
+  </si>
+  <si>
+    <t>Salary of the second job group listed in the seventh wage table. This is usually the first wage in that table. (number). Ex: 13,17; 21,59; 9,58</t>
+  </si>
+  <si>
+    <t>Salary of the third job group listed in the seventh wage table. This is usually the first wage in that table. (number). Ex: 13,17; 21,59; 9,58</t>
+  </si>
+  <si>
+    <t>Unit of the salary values in the seventh wage table. (text). Ex: hourly; monthly</t>
+  </si>
+  <si>
+    <t>start date of seventh wage table (date in dd/mm/yyyy format). Ex: 01/01/2018; 01/01/2017; 01/07/2010</t>
+  </si>
+  <si>
+    <t>Does the CAO file contain additional basic/normal wage tables beyond the 7 already extracted? (Boolean: Yes/No). Ex: Yes; No</t>
+  </si>
+  <si>
+    <t>All additional context related to salary interpretation not covered in other fields (text). Ex: Youth salary scales phased out from 2014; Hourly wage = monthly salary / 156; Classification via FWG® system; Introductory salary scales abolished as of 2013</t>
+  </si>
+  <si>
+    <t>Age group the salary tables apply to, considering only workers aged 21 and older (text). Ex: 21 years and older; 22 years and olders</t>
+  </si>
+  <si>
+    <t>Percentage increase of salaries in the seventh wage table (number with %). May appear outside the table, often near the Dutch words for increase such as “verhoging” or “loonsverhoging”. Ex: 1%; 3%; 10,5%</t>
+  </si>
+  <si>
+    <t>All information related to the basic pension premium and scheme (text). Ex: 50% of the pension premium will be paid by the employee; The pension scheme follows the rules of Stichting Bedrijfstakpensioenfonds; Employees aged 21 to 68 are registered with the Food Industry Pension Fund; The RVU allows early retirement up to AOW age if certain conditions are met</t>
+  </si>
+  <si>
+    <t>Retirement age for the basic pension scheme (text or number). Ex: 67; 68; 67–68</t>
+  </si>
+  <si>
+    <t>Retirement age for the additional or “plus” pension premium scheme (text or number). Ex: 65; 68; 66–68</t>
+  </si>
+  <si>
+    <t>pension_age_group</t>
+  </si>
+  <si>
+    <t>Age group eligible for the pension scheme (text). Ex: 21 years and older; 22 years and older</t>
+  </si>
+  <si>
+    <t>All information related to additional or “plus” pension premiums, including age-related schemes like the Generation Policy and changes in contribution percentages (text). Ex: Pension premium increased to 21,4% in 2021, split evenly between employer and employee; Generation Policy applies to workers aged 60+ between 2018 and 2023; 0,2% premium increase for employees offset by wage increase on 1-6-2021</t>
+  </si>
+  <si>
+    <t>All information related to the duration of maternity, adoption, or child-related leave (text). Ex: 5 days of paid maternity leave; At least 16 weeks; Additional 4 weeks in case of multiple births; Up to 5 weeks extra within 6 months after birth</t>
+  </si>
+  <si>
+    <t>All available information about the amount of vacation or holiday time employees are entitled to (number or text). Include base and extra entitlements. Ex: 0.0769; 192; 20</t>
+  </si>
+  <si>
+    <t>maternity_leave</t>
+  </si>
+  <si>
+    <t>All available information about salary, benefits, or compensation during maternity, adoption, or child-related leave (text). Include both employer and UWV contributions. Ex: 100% paid by employer; 70% UWV benefit; 100% of maximum daily wage</t>
+  </si>
+  <si>
+    <t>All additional context related to maternity/ adoption/ child-related leave rules not covered in other fields (text). Include among other things rights, accruals, flexibility, partner substitution, and legal protections. Ex: Vacation accrues during leave; Leave may be split; Partner receives remaining leave if employee dies; 1 hour weekly reduction after birth</t>
+  </si>
+  <si>
+    <t>All additional vacation/ holiday-related information not covered in other fields (text). Include accrual rules, holiday years, age/tenure-based bonuses, payout terms, and holiday allowance rules. Ex: Holiday year runs June–May; 8% holiday allowance; 3 weeks of consecutive vacation; 5 extra days after 40 years of service</t>
+  </si>
+  <si>
+    <t>All information about the notice period duration or unit for worker-initiated contract termination (text). Include special rules based on age, start date, or contract length. Ex: 1 week if less than 2 years employed; 10 days; 6 weeks max based on age and service duration</t>
+  </si>
+  <si>
+    <t>All information about the notice period duration or unit for employer-initiated contract termination (text). Include special rules based on age, start date, or contract length. Ex: 1 month for contracts longer than 6 months; 4 weeks for employees with 10–15 years of service; Statutory period applies if longer than agreed term</t>
+  </si>
+  <si>
+    <t>Unit or accrual structure of the vacation time reported in the previous column "vacation_time" (text). Be precise about whether it’s hours, days, or a formula-based accrual. Ex: hours per vacation year; days per full-time contract</t>
+  </si>
+  <si>
+    <t>All other information about employer-initiated contract termination not covered in the previous column "term_period_employer" (text). Include legal references, conditions, exceptions, or case-specific rules. Ex: Civil Code provisions apply; Prior employment counts toward service years; Periods may be defined in months or 4-week cycles</t>
+  </si>
+  <si>
+    <t>All other information about worker-initiated contract termination not covered in the previous column "term_period_worker" (text). Include conditions, exceptions, legal references, or case-specific clauses. Ex: Old rule applies for employees aged 45+ as of Jan 1, 1999; Starting date for notice is always a Saturday</t>
+  </si>
+  <si>
+    <t>All information about the length or conditions of the probation period for new workers (text). Include all relevant rules based on contract length or type. Ex: 2 months for indefinite contracts; No trial period if contract ≤ 6 months; 1 month max for fixed-term contracts between 6 and 24 months</t>
+  </si>
+  <si>
+    <t>All other information about the probation period not covered in the previous column "probation_period" (text). Include references to conditions, exceptions, legal references, case-specific clauses or when probation is disallowed. Ex: Trial period only allowed if new role involves substantially different responsibilities; Article 7:652 of the Civil Code applies</t>
+  </si>
+  <si>
+    <t>All information about overtime pay or compensation, including units, percentages, and whether compensation is given in time or money (text). Include legal rules, employer-specific clauses, and time limits. Ex: 35% surcharge on basic hourly wage; Paid time off within 4 weeks; 100% of hourly wage plus overtime premium; Overtime after 152 hours per period</t>
+  </si>
+  <si>
+    <t>All information about the maximum allowed working hours or overtime hours, including what type of time it applies to and for which worker categories (text). Ex: 12 hours per day; Max 10 hours of overtime per week; 36 hours max overtime per 3 pay periods; 52-hour weekly average if salary exceeds IP number 74</t>
+  </si>
+  <si>
+    <t>All information about the minimum required number of hours, days, weeks, or months to be worked, including units and reference periods (text). Ex: 24 hours per week; 8 hours per day minimum; 20 working days per month</t>
+  </si>
+  <si>
+    <t>All information about shift-based work and related compensation, including night, evening, early morning, and weekend shifts (text). Include hours, pay surcharges, limitations, and scheduling rules. Ex: 25% surcharge from 8pm–10pm; 50% surcharge between 10pm–6am; Night shift defined as work between 00:00 and 06:00; Max 20 shifts per 4-week period</t>
+  </si>
+  <si>
+    <t>All information about the minimum allowance for overtime or night shift work, including duration, compensation, and applicable legal limits (text). Ex: At least 4.5-hour shift to qualify for night compensation; Minimum 1 paid break for shifts covering 00:00–06:00; 16 night shifts over 16 weeks triggers lower working hour threshold</t>
+  </si>
+  <si>
+    <t>All information about the maximum allowance for overtime or night shift work, including duration, compensation, and applicable legal limits (text). (text). Ex: Max 12 hours per day; Max 43 night shifts in 16 weeks; Max 36 overtime hours per 3 pay periods; Working time averaged over 13 weeks not to exceed 48 hours</t>
+  </si>
+  <si>
+    <t>All information related to training, development, or education for employees or employers (text). Include training rights, budgets, mandatory recognition, funding percentages, and types of courses. Ex: Minimum 2% of annual payroll must be used for training; POB budget of €175 per year; Dutch language course and vocational training; Only recognized training companies may provide internships</t>
+  </si>
+  <si>
+    <t>all information about first jobgroup. Often mentioned in wage table as column titles (number or text). Ex: I=Statutory minimum wage (WML); F-21-5; 65-12-57</t>
+  </si>
+  <si>
+    <t>all information about second jobgroup. Often mentioned in wage table as column titles (number or text). Ex: I=Statutory minimum wage (WML); F-21-5; 65-12-57</t>
+  </si>
+  <si>
+    <t>all information about third jobgroup. Often mentioned in wage table as column titles (number or text). Ex: I=Statutory minimum wage (WML); F-21-5; 65-12-57</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -625,6 +526,12 @@
       <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0E0E0E"/>
+      <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -713,7 +620,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -738,6 +645,7 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1072,17 +980,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03BF5F48-E2E4-AB45-AC3D-2386CAD72E8A}">
-  <dimension ref="A1:BR11"/>
+  <dimension ref="A1:BN10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:70" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:66" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>154</v>
+        <v>65</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -1199,13 +1107,13 @@
         <v>36</v>
       </c>
       <c r="AN1" s="4" t="s">
-        <v>108</v>
+        <v>63</v>
       </c>
       <c r="AO1" s="4" t="s">
         <v>38</v>
       </c>
       <c r="AP1" s="4" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="AQ1" s="3" t="s">
         <v>39</v>
@@ -1220,811 +1128,674 @@
         <v>42</v>
       </c>
       <c r="AU1" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AV1" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="AW1" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AV1" s="7" t="s">
+      <c r="AX1" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="AW1" s="7" t="s">
+      <c r="AY1" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="AZ1" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="AX1" s="7" t="s">
+      <c r="BA1" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="AY1" s="7" t="s">
+      <c r="BB1" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="BC1" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="BD1" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="BE1" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="BF1" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="BG1" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="BH1" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="BI1" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="BJ1" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="BK1" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="BL1" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="BM1" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="BN1" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:66" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>66</v>
       </c>
-      <c r="AZ1" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="BA1" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="BB1" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="BC1" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="BD1" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="BE1" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="BF1" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="BG1" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="BH1" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="BI1" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="BJ1" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="BK1" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="BL1" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="BM1" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="BN1" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="BO1" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="BP1" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="BQ1" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="BR1" s="9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>153</v>
-      </c>
       <c r="D2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H2" t="s">
+        <v>79</v>
+      </c>
+      <c r="J2" t="s">
+        <v>67</v>
+      </c>
+      <c r="K2" t="s">
+        <v>147</v>
+      </c>
+      <c r="L2" t="s">
+        <v>74</v>
+      </c>
+      <c r="M2" t="s">
+        <v>77</v>
+      </c>
+      <c r="N2" t="s">
         <v>80</v>
       </c>
-      <c r="G2" t="s">
-        <v>173</v>
-      </c>
-      <c r="H2" t="s">
-        <v>162</v>
-      </c>
-      <c r="J2" t="s">
-        <v>62</v>
-      </c>
-      <c r="K2" t="s">
-        <v>182</v>
-      </c>
-      <c r="L2" t="s">
-        <v>132</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
+        <v>81</v>
+      </c>
+      <c r="P2" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>85</v>
+      </c>
+      <c r="R2" t="s">
         <v>86</v>
       </c>
-      <c r="N2" t="s">
-        <v>85</v>
-      </c>
-      <c r="O2" t="s">
-        <v>90</v>
-      </c>
-      <c r="P2" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>89</v>
-      </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
+        <v>87</v>
+      </c>
+      <c r="T2" t="s">
         <v>88</v>
       </c>
-      <c r="S2" t="s">
+      <c r="U2" t="s">
         <v>91</v>
       </c>
-      <c r="T2" t="s">
-        <v>134</v>
-      </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
+        <v>92</v>
+      </c>
+      <c r="W2" t="s">
+        <v>93</v>
+      </c>
+      <c r="X2" t="s">
         <v>94</v>
-      </c>
-      <c r="V2" t="s">
-        <v>93</v>
-      </c>
-      <c r="W2" t="s">
-        <v>95</v>
-      </c>
-      <c r="X2" t="s">
-        <v>135</v>
       </c>
       <c r="Y2" t="s">
         <v>97</v>
       </c>
       <c r="Z2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="AA2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AB2" t="s">
-        <v>136</v>
+        <v>100</v>
       </c>
       <c r="AC2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="AD2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="AE2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="AF2" t="s">
-        <v>137</v>
+        <v>106</v>
       </c>
       <c r="AG2" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="AH2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="AI2" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="AJ2" t="s">
-        <v>138</v>
+        <v>112</v>
       </c>
       <c r="AK2" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="AL2" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="AM2" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="AN2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="AO2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AP2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="AU2" s="1"/>
     </row>
-    <row r="3" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>153</v>
+        <v>64</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H3" t="s">
+        <v>79</v>
+      </c>
+      <c r="J3" t="s">
+        <v>67</v>
+      </c>
+      <c r="K3" t="s">
+        <v>148</v>
+      </c>
+      <c r="L3" t="s">
+        <v>75</v>
+      </c>
+      <c r="M3" t="s">
+        <v>77</v>
+      </c>
+      <c r="N3" t="s">
         <v>80</v>
       </c>
-      <c r="G3" t="s">
-        <v>174</v>
-      </c>
-      <c r="H3" t="s">
-        <v>163</v>
-      </c>
-      <c r="J3" t="s">
-        <v>62</v>
-      </c>
-      <c r="K3" t="s">
-        <v>159</v>
-      </c>
-      <c r="L3" t="s">
-        <v>139</v>
-      </c>
-      <c r="M3" t="s">
+      <c r="O3" t="s">
+        <v>81</v>
+      </c>
+      <c r="P3" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>85</v>
+      </c>
+      <c r="R3" t="s">
         <v>86</v>
       </c>
-      <c r="N3" t="s">
-        <v>85</v>
-      </c>
-      <c r="O3" t="s">
-        <v>90</v>
-      </c>
-      <c r="P3" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q3" t="s">
+      <c r="S3" t="s">
+        <v>87</v>
+      </c>
+      <c r="T3" t="s">
         <v>89</v>
       </c>
-      <c r="R3" t="s">
-        <v>88</v>
-      </c>
-      <c r="S3" t="s">
+      <c r="U3" t="s">
         <v>91</v>
       </c>
-      <c r="T3" t="s">
-        <v>141</v>
-      </c>
-      <c r="U3" t="s">
-        <v>94</v>
-      </c>
       <c r="V3" t="s">
+        <v>92</v>
+      </c>
+      <c r="W3" t="s">
         <v>93</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>95</v>
-      </c>
-      <c r="X3" t="s">
-        <v>142</v>
       </c>
       <c r="Y3" t="s">
         <v>97</v>
       </c>
       <c r="Z3" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>101</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>103</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>105</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>107</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>110</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>111</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>113</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>116</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>120</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>117</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>118</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:66" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G4" t="s">
+        <v>78</v>
+      </c>
+      <c r="H4" t="s">
+        <v>79</v>
+      </c>
+      <c r="J4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" t="s">
+        <v>149</v>
+      </c>
+      <c r="L4" t="s">
+        <v>76</v>
+      </c>
+      <c r="M4" t="s">
+        <v>77</v>
+      </c>
+      <c r="N4" t="s">
+        <v>80</v>
+      </c>
+      <c r="O4" t="s">
+        <v>81</v>
+      </c>
+      <c r="P4" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>85</v>
+      </c>
+      <c r="R4" t="s">
+        <v>86</v>
+      </c>
+      <c r="S4" t="s">
+        <v>87</v>
+      </c>
+      <c r="T4" t="s">
+        <v>90</v>
+      </c>
+      <c r="U4" t="s">
+        <v>91</v>
+      </c>
+      <c r="V4" t="s">
+        <v>92</v>
+      </c>
+      <c r="W4" t="s">
+        <v>93</v>
+      </c>
+      <c r="X4" t="s">
         <v>96</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>98</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>143</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>100</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>99</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>101</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>144</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>103</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>102</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>104</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>145</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>106</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>105</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>107</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>109</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>114</v>
-      </c>
-      <c r="AP3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="4" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>153</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="G4" t="s">
-        <v>175</v>
-      </c>
-      <c r="H4" t="s">
-        <v>164</v>
-      </c>
-      <c r="J4" t="s">
-        <v>62</v>
-      </c>
-      <c r="K4" t="s">
-        <v>160</v>
-      </c>
-      <c r="L4" t="s">
-        <v>146</v>
-      </c>
-      <c r="M4" t="s">
-        <v>86</v>
-      </c>
-      <c r="N4" t="s">
-        <v>85</v>
-      </c>
-      <c r="O4" t="s">
-        <v>90</v>
-      </c>
-      <c r="P4" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>89</v>
-      </c>
-      <c r="R4" t="s">
-        <v>88</v>
-      </c>
-      <c r="S4" t="s">
-        <v>91</v>
-      </c>
-      <c r="T4" t="s">
-        <v>148</v>
-      </c>
-      <c r="U4" t="s">
-        <v>94</v>
-      </c>
-      <c r="V4" t="s">
-        <v>93</v>
-      </c>
-      <c r="W4" t="s">
-        <v>95</v>
-      </c>
-      <c r="X4" t="s">
-        <v>149</v>
       </c>
       <c r="Y4" t="s">
         <v>97</v>
       </c>
       <c r="Z4" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="AA4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AB4" t="s">
-        <v>150</v>
+        <v>102</v>
       </c>
       <c r="AC4" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="AD4" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="AE4" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="AF4" t="s">
-        <v>151</v>
+        <v>108</v>
       </c>
       <c r="AG4" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="AH4" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="AI4" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="AJ4" t="s">
-        <v>152</v>
+        <v>114</v>
       </c>
       <c r="AK4" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="AL4" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="AM4" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="AN4" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="AO4" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AP4" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
-    <row r="5" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>153</v>
+        <v>64</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="G5" t="s">
-        <v>172</v>
+        <v>78</v>
       </c>
       <c r="H5" t="s">
-        <v>165</v>
+        <v>79</v>
       </c>
       <c r="J5" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="K5" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="L5" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="M5" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="N5" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="O5" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="P5" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="Q5" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="R5" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="S5" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="T5" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="U5" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="V5" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="W5" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="X5" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="Y5" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="Z5" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="AA5" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="AB5" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="AC5" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="AD5" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="AE5" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="AF5" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="AG5" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="AH5" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="AI5" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="AJ5" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="AK5" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="AL5" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="AM5" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="AN5" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="AO5" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="AP5" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:66" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>153</v>
+        <v>64</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="G6" t="s">
-        <v>176</v>
+        <v>78</v>
       </c>
       <c r="H6" t="s">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="J6" t="s">
-        <v>62</v>
-      </c>
-      <c r="K6" t="s">
-        <v>161</v>
-      </c>
-      <c r="L6" t="s">
-        <v>84</v>
-      </c>
-      <c r="M6" t="s">
-        <v>86</v>
-      </c>
-      <c r="N6" t="s">
-        <v>85</v>
-      </c>
-      <c r="O6" t="s">
-        <v>90</v>
-      </c>
-      <c r="P6" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>89</v>
-      </c>
-      <c r="R6" t="s">
-        <v>88</v>
-      </c>
-      <c r="S6" t="s">
-        <v>91</v>
-      </c>
-      <c r="T6" t="s">
-        <v>92</v>
-      </c>
-      <c r="U6" t="s">
-        <v>94</v>
-      </c>
-      <c r="V6" t="s">
-        <v>93</v>
-      </c>
-      <c r="W6" t="s">
-        <v>95</v>
-      </c>
-      <c r="X6" t="s">
-        <v>110</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>96</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>98</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>111</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>100</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>99</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>101</v>
-      </c>
-      <c r="AF6" t="s">
-        <v>112</v>
-      </c>
-      <c r="AG6" t="s">
-        <v>103</v>
-      </c>
-      <c r="AH6" t="s">
-        <v>102</v>
-      </c>
-      <c r="AI6" t="s">
-        <v>104</v>
-      </c>
-      <c r="AJ6" t="s">
-        <v>113</v>
-      </c>
-      <c r="AK6" t="s">
-        <v>106</v>
-      </c>
-      <c r="AL6" t="s">
-        <v>105</v>
-      </c>
-      <c r="AM6" t="s">
-        <v>107</v>
-      </c>
-      <c r="AN6" t="s">
-        <v>109</v>
-      </c>
-      <c r="AO6" t="s">
-        <v>114</v>
-      </c>
-      <c r="AP6" t="s">
-        <v>115</v>
+        <v>67</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>121</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>126</v>
+      </c>
+      <c r="AS6" t="s">
+        <v>122</v>
+      </c>
+      <c r="AT6" t="s">
+        <v>123</v>
+      </c>
+      <c r="AU6" t="s">
+        <v>125</v>
       </c>
     </row>
-    <row r="7" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>153</v>
+        <v>64</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="G7" t="s">
-        <v>177</v>
+        <v>78</v>
       </c>
       <c r="H7" t="s">
-        <v>167</v>
+        <v>79</v>
       </c>
       <c r="J7" t="s">
-        <v>62</v>
-      </c>
-      <c r="AQ7" t="s">
-        <v>116</v>
-      </c>
-      <c r="AR7" t="s">
-        <v>117</v>
-      </c>
-      <c r="AS7" t="s">
-        <v>118</v>
-      </c>
-      <c r="AT7" t="s">
-        <v>119</v>
-      </c>
-      <c r="AU7" t="s">
-        <v>120</v>
+        <v>67</v>
+      </c>
+      <c r="AV7" t="s">
+        <v>127</v>
+      </c>
+      <c r="AW7" t="s">
+        <v>130</v>
+      </c>
+      <c r="AX7" t="s">
+        <v>131</v>
+      </c>
+      <c r="AY7" t="s">
+        <v>128</v>
+      </c>
+      <c r="AZ7" t="s">
+        <v>135</v>
+      </c>
+      <c r="BA7" t="s">
+        <v>132</v>
       </c>
     </row>
-    <row r="8" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>153</v>
+        <v>64</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>155</v>
+        <v>71</v>
       </c>
       <c r="G8" t="s">
-        <v>178</v>
+        <v>78</v>
       </c>
       <c r="H8" t="s">
-        <v>168</v>
+        <v>79</v>
       </c>
       <c r="J8" t="s">
-        <v>62</v>
-      </c>
-      <c r="AV8" t="s">
-        <v>121</v>
-      </c>
-      <c r="AW8" t="s">
-        <v>63</v>
-      </c>
-      <c r="AX8" t="s">
+        <v>67</v>
+      </c>
+      <c r="BB8" t="s">
+        <v>134</v>
+      </c>
+      <c r="BC8" t="s">
+        <v>136</v>
+      </c>
+      <c r="BD8" t="s">
+        <v>133</v>
+      </c>
+      <c r="BE8" t="s">
+        <v>137</v>
+      </c>
+      <c r="BF8" t="s">
+        <v>138</v>
+      </c>
+      <c r="BG8" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="9" spans="1:66" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>64</v>
       </c>
-      <c r="AY8" t="s">
-        <v>65</v>
-      </c>
-      <c r="AZ8" t="s">
+      <c r="D9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G9" t="s">
+        <v>78</v>
+      </c>
+      <c r="H9" t="s">
+        <v>79</v>
+      </c>
+      <c r="J9" t="s">
         <v>67</v>
       </c>
-      <c r="BA8" t="s">
-        <v>68</v>
+      <c r="BH9" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="BI9" t="s">
+        <v>141</v>
+      </c>
+      <c r="BJ9" t="s">
+        <v>142</v>
+      </c>
+      <c r="BK9" t="s">
+        <v>143</v>
+      </c>
+      <c r="BL9" t="s">
+        <v>144</v>
+      </c>
+      <c r="BM9" t="s">
+        <v>145</v>
       </c>
     </row>
-    <row r="9" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>153</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="G9" t="s">
-        <v>179</v>
-      </c>
-      <c r="H9" t="s">
-        <v>169</v>
-      </c>
-      <c r="J9" t="s">
-        <v>62</v>
-      </c>
-      <c r="BB9" t="s">
-        <v>122</v>
-      </c>
-      <c r="BC9" t="s">
-        <v>123</v>
-      </c>
-      <c r="BD9" t="s">
-        <v>124</v>
-      </c>
-      <c r="BE9" t="s">
-        <v>125</v>
-      </c>
-      <c r="BF9" t="s">
-        <v>126</v>
-      </c>
-      <c r="BG9" t="s">
-        <v>127</v>
-      </c>
-      <c r="BH9" t="s">
-        <v>128</v>
-      </c>
-      <c r="BI9" t="s">
-        <v>129</v>
-      </c>
-      <c r="BJ9" t="s">
-        <v>74</v>
-      </c>
-      <c r="BK9" t="s">
+    <row r="10" spans="1:66" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="10" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>153</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>157</v>
-      </c>
       <c r="G10" t="s">
-        <v>180</v>
+        <v>78</v>
       </c>
       <c r="H10" t="s">
-        <v>170</v>
+        <v>79</v>
       </c>
       <c r="J10" t="s">
-        <v>62</v>
-      </c>
-      <c r="BL10" t="s">
-        <v>75</v>
-      </c>
-      <c r="BM10" t="s">
-        <v>130</v>
+        <v>67</v>
       </c>
       <c r="BN10" t="s">
-        <v>131</v>
-      </c>
-      <c r="BO10" t="s">
-        <v>76</v>
-      </c>
-      <c r="BP10" t="s">
-        <v>77</v>
-      </c>
-      <c r="BQ10" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="11" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>153</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="G11" t="s">
-        <v>181</v>
-      </c>
-      <c r="H11" t="s">
-        <v>171</v>
-      </c>
-      <c r="J11" t="s">
-        <v>62</v>
-      </c>
-      <c r="BR11" t="s">
-        <v>79</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>

--- a/inputExcel/250702 AI information matrix.xlsx
+++ b/inputExcel/250702 AI information matrix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lorenzpiazolo/Documents/Python/CAOsDataExtraction/inputExcel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5929C272-379E-944A-8B41-BD304F0C67AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26BAB97E-A0A0-D049-999E-81F4069C2282}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4340" yWindow="500" windowWidth="16000" windowHeight="16080" xr2:uid="{DE6B04FB-4535-6B4B-8490-9A662190B816}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="149">
   <si>
     <t>CAO</t>
   </si>
@@ -228,9 +228,6 @@
   </si>
   <si>
     <t>more_salaries</t>
-  </si>
-  <si>
-    <t>pdf file name</t>
   </si>
   <si>
     <t>File_name</t>
@@ -982,15 +979,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03BF5F48-E2E4-AB45-AC3D-2386CAD72E8A}">
   <dimension ref="A1:BN10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:66" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -1128,10 +1125,10 @@
         <v>42</v>
       </c>
       <c r="AU1" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AV1" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AW1" s="7" t="s">
         <v>43</v>
@@ -1190,359 +1187,359 @@
     </row>
     <row r="2" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H2" t="s">
+        <v>78</v>
+      </c>
+      <c r="J2" t="s">
         <v>66</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G2" t="s">
-        <v>78</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="K2" t="s">
+        <v>146</v>
+      </c>
+      <c r="L2" t="s">
+        <v>73</v>
+      </c>
+      <c r="M2" t="s">
+        <v>76</v>
+      </c>
+      <c r="N2" t="s">
         <v>79</v>
       </c>
-      <c r="J2" t="s">
-        <v>67</v>
-      </c>
-      <c r="K2" t="s">
-        <v>147</v>
-      </c>
-      <c r="L2" t="s">
-        <v>74</v>
-      </c>
-      <c r="M2" t="s">
-        <v>77</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>80</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>81</v>
       </c>
-      <c r="P2" t="s">
-        <v>82</v>
-      </c>
       <c r="Q2" t="s">
+        <v>84</v>
+      </c>
+      <c r="R2" t="s">
         <v>85</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>86</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>87</v>
       </c>
-      <c r="T2" t="s">
-        <v>88</v>
-      </c>
       <c r="U2" t="s">
+        <v>90</v>
+      </c>
+      <c r="V2" t="s">
         <v>91</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>92</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>93</v>
       </c>
-      <c r="X2" t="s">
-        <v>94</v>
-      </c>
       <c r="Y2" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z2" t="s">
         <v>97</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>98</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>99</v>
       </c>
-      <c r="AB2" t="s">
-        <v>100</v>
-      </c>
       <c r="AC2" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD2" t="s">
         <v>103</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>104</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
         <v>105</v>
       </c>
-      <c r="AF2" t="s">
-        <v>106</v>
-      </c>
       <c r="AG2" t="s">
+        <v>108</v>
+      </c>
+      <c r="AH2" t="s">
         <v>109</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AI2" t="s">
         <v>110</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AJ2" t="s">
         <v>111</v>
       </c>
-      <c r="AJ2" t="s">
-        <v>112</v>
-      </c>
       <c r="AK2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AL2" t="s">
         <v>115</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="AM2" t="s">
+        <v>119</v>
+      </c>
+      <c r="AN2" t="s">
         <v>116</v>
       </c>
-      <c r="AM2" t="s">
-        <v>120</v>
-      </c>
-      <c r="AN2" t="s">
+      <c r="AO2" t="s">
         <v>117</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="AP2" t="s">
         <v>118</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>119</v>
       </c>
       <c r="AU2" s="1"/>
     </row>
     <row r="3" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G3" t="s">
+        <v>77</v>
+      </c>
+      <c r="H3" t="s">
         <v>78</v>
       </c>
-      <c r="H3" t="s">
+      <c r="J3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K3" t="s">
+        <v>147</v>
+      </c>
+      <c r="L3" t="s">
+        <v>74</v>
+      </c>
+      <c r="M3" t="s">
+        <v>76</v>
+      </c>
+      <c r="N3" t="s">
         <v>79</v>
       </c>
-      <c r="J3" t="s">
-        <v>67</v>
-      </c>
-      <c r="K3" t="s">
-        <v>148</v>
-      </c>
-      <c r="L3" t="s">
-        <v>75</v>
-      </c>
-      <c r="M3" t="s">
-        <v>77</v>
-      </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>80</v>
       </c>
-      <c r="O3" t="s">
-        <v>81</v>
-      </c>
       <c r="P3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q3" t="s">
+        <v>84</v>
+      </c>
+      <c r="R3" t="s">
         <v>85</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>86</v>
       </c>
-      <c r="S3" t="s">
-        <v>87</v>
-      </c>
       <c r="T3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="U3" t="s">
+        <v>90</v>
+      </c>
+      <c r="V3" t="s">
         <v>91</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>92</v>
       </c>
-      <c r="W3" t="s">
-        <v>93</v>
-      </c>
       <c r="X3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Y3" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z3" t="s">
         <v>97</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>98</v>
       </c>
-      <c r="AA3" t="s">
-        <v>99</v>
-      </c>
       <c r="AB3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AC3" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD3" t="s">
         <v>103</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>104</v>
       </c>
-      <c r="AE3" t="s">
-        <v>105</v>
-      </c>
       <c r="AF3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AG3" t="s">
+        <v>108</v>
+      </c>
+      <c r="AH3" t="s">
         <v>109</v>
       </c>
-      <c r="AH3" t="s">
+      <c r="AI3" t="s">
         <v>110</v>
       </c>
-      <c r="AI3" t="s">
-        <v>111</v>
-      </c>
       <c r="AJ3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AK3" t="s">
+        <v>114</v>
+      </c>
+      <c r="AL3" t="s">
         <v>115</v>
       </c>
-      <c r="AL3" t="s">
+      <c r="AM3" t="s">
+        <v>119</v>
+      </c>
+      <c r="AN3" t="s">
         <v>116</v>
       </c>
-      <c r="AM3" t="s">
-        <v>120</v>
-      </c>
-      <c r="AN3" t="s">
+      <c r="AO3" t="s">
         <v>117</v>
       </c>
-      <c r="AO3" t="s">
+      <c r="AP3" t="s">
         <v>118</v>
-      </c>
-      <c r="AP3" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G4" t="s">
+        <v>77</v>
+      </c>
+      <c r="H4" t="s">
         <v>78</v>
       </c>
-      <c r="H4" t="s">
+      <c r="J4" t="s">
+        <v>66</v>
+      </c>
+      <c r="K4" t="s">
+        <v>148</v>
+      </c>
+      <c r="L4" t="s">
+        <v>75</v>
+      </c>
+      <c r="M4" t="s">
+        <v>76</v>
+      </c>
+      <c r="N4" t="s">
         <v>79</v>
       </c>
-      <c r="J4" t="s">
-        <v>67</v>
-      </c>
-      <c r="K4" t="s">
-        <v>149</v>
-      </c>
-      <c r="L4" t="s">
-        <v>76</v>
-      </c>
-      <c r="M4" t="s">
-        <v>77</v>
-      </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>80</v>
       </c>
-      <c r="O4" t="s">
-        <v>81</v>
-      </c>
       <c r="P4" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q4" t="s">
         <v>84</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>85</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>86</v>
       </c>
-      <c r="S4" t="s">
-        <v>87</v>
-      </c>
       <c r="T4" t="s">
+        <v>89</v>
+      </c>
+      <c r="U4" t="s">
         <v>90</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>91</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>92</v>
       </c>
-      <c r="W4" t="s">
-        <v>93</v>
-      </c>
       <c r="X4" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y4" t="s">
         <v>96</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>97</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>98</v>
       </c>
-      <c r="AA4" t="s">
-        <v>99</v>
-      </c>
       <c r="AB4" t="s">
+        <v>101</v>
+      </c>
+      <c r="AC4" t="s">
         <v>102</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>103</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>104</v>
       </c>
-      <c r="AE4" t="s">
-        <v>105</v>
-      </c>
       <c r="AF4" t="s">
+        <v>107</v>
+      </c>
+      <c r="AG4" t="s">
         <v>108</v>
       </c>
-      <c r="AG4" t="s">
+      <c r="AH4" t="s">
         <v>109</v>
       </c>
-      <c r="AH4" t="s">
+      <c r="AI4" t="s">
         <v>110</v>
       </c>
-      <c r="AI4" t="s">
-        <v>111</v>
-      </c>
       <c r="AJ4" t="s">
+        <v>113</v>
+      </c>
+      <c r="AK4" t="s">
         <v>114</v>
       </c>
-      <c r="AK4" t="s">
+      <c r="AL4" t="s">
         <v>115</v>
       </c>
-      <c r="AL4" t="s">
+      <c r="AM4" t="s">
+        <v>119</v>
+      </c>
+      <c r="AN4" t="s">
         <v>116</v>
       </c>
-      <c r="AM4" t="s">
-        <v>120</v>
-      </c>
-      <c r="AN4" t="s">
+      <c r="AO4" t="s">
         <v>117</v>
       </c>
-      <c r="AO4" t="s">
+      <c r="AP4" t="s">
         <v>118</v>
-      </c>
-      <c r="AP4" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G5" t="s">
+        <v>77</v>
+      </c>
+      <c r="H5" t="s">
         <v>78</v>
       </c>
-      <c r="H5" t="s">
-        <v>79</v>
-      </c>
       <c r="J5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K5" t="s">
         <v>61</v>
@@ -1643,159 +1640,159 @@
     </row>
     <row r="6" spans="1:66" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G6" t="s">
+        <v>77</v>
+      </c>
+      <c r="H6" t="s">
         <v>78</v>
       </c>
-      <c r="H6" t="s">
-        <v>79</v>
-      </c>
       <c r="J6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AQ6" t="s">
+        <v>120</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>125</v>
+      </c>
+      <c r="AS6" t="s">
         <v>121</v>
       </c>
-      <c r="AR6" t="s">
-        <v>126</v>
-      </c>
-      <c r="AS6" t="s">
+      <c r="AT6" t="s">
         <v>122</v>
       </c>
-      <c r="AT6" t="s">
-        <v>123</v>
-      </c>
       <c r="AU6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G7" t="s">
+        <v>77</v>
+      </c>
+      <c r="H7" t="s">
         <v>78</v>
       </c>
-      <c r="H7" t="s">
-        <v>79</v>
-      </c>
       <c r="J7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AV7" t="s">
+        <v>126</v>
+      </c>
+      <c r="AW7" t="s">
+        <v>129</v>
+      </c>
+      <c r="AX7" t="s">
+        <v>130</v>
+      </c>
+      <c r="AY7" t="s">
         <v>127</v>
       </c>
-      <c r="AW7" t="s">
-        <v>130</v>
-      </c>
-      <c r="AX7" t="s">
+      <c r="AZ7" t="s">
+        <v>134</v>
+      </c>
+      <c r="BA7" t="s">
         <v>131</v>
-      </c>
-      <c r="AY7" t="s">
-        <v>128</v>
-      </c>
-      <c r="AZ7" t="s">
-        <v>135</v>
-      </c>
-      <c r="BA7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G8" t="s">
+        <v>77</v>
+      </c>
+      <c r="H8" t="s">
         <v>78</v>
       </c>
-      <c r="H8" t="s">
-        <v>79</v>
-      </c>
       <c r="J8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="BB8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="BC8" t="s">
+        <v>135</v>
+      </c>
+      <c r="BD8" t="s">
+        <v>132</v>
+      </c>
+      <c r="BE8" t="s">
         <v>136</v>
       </c>
-      <c r="BD8" t="s">
-        <v>133</v>
-      </c>
-      <c r="BE8" t="s">
+      <c r="BF8" t="s">
         <v>137</v>
       </c>
-      <c r="BF8" t="s">
+      <c r="BG8" t="s">
         <v>138</v>
-      </c>
-      <c r="BG8" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G9" t="s">
+        <v>77</v>
+      </c>
+      <c r="H9" t="s">
         <v>78</v>
       </c>
-      <c r="H9" t="s">
-        <v>79</v>
-      </c>
       <c r="J9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="BH9" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="BI9" t="s">
         <v>140</v>
       </c>
-      <c r="BI9" t="s">
+      <c r="BJ9" t="s">
         <v>141</v>
       </c>
-      <c r="BJ9" t="s">
+      <c r="BK9" t="s">
         <v>142</v>
       </c>
-      <c r="BK9" t="s">
+      <c r="BL9" t="s">
         <v>143</v>
       </c>
-      <c r="BL9" t="s">
+      <c r="BM9" t="s">
         <v>144</v>
-      </c>
-      <c r="BM9" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G10" t="s">
+        <v>77</v>
+      </c>
+      <c r="H10" t="s">
         <v>78</v>
       </c>
-      <c r="H10" t="s">
-        <v>79</v>
-      </c>
       <c r="J10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="BN10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>

--- a/inputExcel/250702 AI information matrix.xlsx
+++ b/inputExcel/250702 AI information matrix.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lorenzpiazolo/Documents/Python/CAOsDataExtraction/inputExcel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26BAB97E-A0A0-D049-999E-81F4069C2282}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D96ACEB-1523-BF41-B1A0-4B277DED6AA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4340" yWindow="500" windowWidth="16000" windowHeight="16080" xr2:uid="{DE6B04FB-4535-6B4B-8490-9A662190B816}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{DE6B04FB-4535-6B4B-8490-9A662190B816}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Full Matrix" sheetId="1" r:id="rId1"/>
+    <sheet name="Salary Matrix" sheetId="2" r:id="rId2"/>
+    <sheet name="Rest Matrix" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="149">
   <si>
     <t>CAO</t>
   </si>
@@ -979,8 +981,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03BF5F48-E2E4-AB45-AC3D-2386CAD72E8A}">
   <dimension ref="A1:BN10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A6" activeCellId="1" sqref="A1:XFD1 A6:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1800,4 +1802,714 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="11" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4CD2C15-18CD-B441-BAB5-E2EE8A3E9E99}">
+  <dimension ref="A1:AG5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE1" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="AG1" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H2" t="s">
+        <v>84</v>
+      </c>
+      <c r="I2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L2" t="s">
+        <v>90</v>
+      </c>
+      <c r="M2" t="s">
+        <v>91</v>
+      </c>
+      <c r="N2" t="s">
+        <v>92</v>
+      </c>
+      <c r="O2" t="s">
+        <v>93</v>
+      </c>
+      <c r="P2" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>97</v>
+      </c>
+      <c r="R2" t="s">
+        <v>98</v>
+      </c>
+      <c r="S2" t="s">
+        <v>99</v>
+      </c>
+      <c r="T2" t="s">
+        <v>102</v>
+      </c>
+      <c r="U2" t="s">
+        <v>103</v>
+      </c>
+      <c r="V2" t="s">
+        <v>104</v>
+      </c>
+      <c r="W2" t="s">
+        <v>105</v>
+      </c>
+      <c r="X2" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>115</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>119</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>116</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>117</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G3" t="s">
+        <v>82</v>
+      </c>
+      <c r="H3" t="s">
+        <v>84</v>
+      </c>
+      <c r="I3" t="s">
+        <v>85</v>
+      </c>
+      <c r="J3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L3" t="s">
+        <v>90</v>
+      </c>
+      <c r="M3" t="s">
+        <v>91</v>
+      </c>
+      <c r="N3" t="s">
+        <v>92</v>
+      </c>
+      <c r="O3" t="s">
+        <v>94</v>
+      </c>
+      <c r="P3" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>97</v>
+      </c>
+      <c r="R3" t="s">
+        <v>98</v>
+      </c>
+      <c r="S3" t="s">
+        <v>100</v>
+      </c>
+      <c r="T3" t="s">
+        <v>102</v>
+      </c>
+      <c r="U3" t="s">
+        <v>103</v>
+      </c>
+      <c r="V3" t="s">
+        <v>104</v>
+      </c>
+      <c r="W3" t="s">
+        <v>106</v>
+      </c>
+      <c r="X3" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>112</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>114</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>115</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>119</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>116</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>117</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F4" t="s">
+        <v>80</v>
+      </c>
+      <c r="G4" t="s">
+        <v>83</v>
+      </c>
+      <c r="H4" t="s">
+        <v>84</v>
+      </c>
+      <c r="I4" t="s">
+        <v>85</v>
+      </c>
+      <c r="J4" t="s">
+        <v>86</v>
+      </c>
+      <c r="K4" t="s">
+        <v>89</v>
+      </c>
+      <c r="L4" t="s">
+        <v>90</v>
+      </c>
+      <c r="M4" t="s">
+        <v>91</v>
+      </c>
+      <c r="N4" t="s">
+        <v>92</v>
+      </c>
+      <c r="O4" t="s">
+        <v>95</v>
+      </c>
+      <c r="P4" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>97</v>
+      </c>
+      <c r="R4" t="s">
+        <v>98</v>
+      </c>
+      <c r="S4" t="s">
+        <v>101</v>
+      </c>
+      <c r="T4" t="s">
+        <v>102</v>
+      </c>
+      <c r="U4" t="s">
+        <v>103</v>
+      </c>
+      <c r="V4" t="s">
+        <v>104</v>
+      </c>
+      <c r="W4" t="s">
+        <v>107</v>
+      </c>
+      <c r="X4" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>113</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>114</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>115</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>119</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>116</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>117</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I5" t="s">
+        <v>61</v>
+      </c>
+      <c r="J5" t="s">
+        <v>61</v>
+      </c>
+      <c r="K5" t="s">
+        <v>61</v>
+      </c>
+      <c r="L5" t="s">
+        <v>61</v>
+      </c>
+      <c r="M5" t="s">
+        <v>61</v>
+      </c>
+      <c r="N5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O5" t="s">
+        <v>61</v>
+      </c>
+      <c r="P5" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>61</v>
+      </c>
+      <c r="R5" t="s">
+        <v>61</v>
+      </c>
+      <c r="S5" t="s">
+        <v>61</v>
+      </c>
+      <c r="T5" t="s">
+        <v>61</v>
+      </c>
+      <c r="U5" t="s">
+        <v>61</v>
+      </c>
+      <c r="V5" t="s">
+        <v>61</v>
+      </c>
+      <c r="W5" t="s">
+        <v>61</v>
+      </c>
+      <c r="X5" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AA65DA5-B948-1C47-BC06-E1245285351C}">
+  <dimension ref="A1:AC2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:29" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q1" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="R1" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="S1" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="T1" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="U1" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="V1" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="W1" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="X1" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y1" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z1" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA1" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB1" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC1" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G2" t="s">
+        <v>125</v>
+      </c>
+      <c r="H2" t="s">
+        <v>121</v>
+      </c>
+      <c r="I2" t="s">
+        <v>122</v>
+      </c>
+      <c r="J2" t="s">
+        <v>124</v>
+      </c>
+      <c r="K2" t="s">
+        <v>126</v>
+      </c>
+      <c r="L2" t="s">
+        <v>129</v>
+      </c>
+      <c r="M2" t="s">
+        <v>130</v>
+      </c>
+      <c r="N2" t="s">
+        <v>127</v>
+      </c>
+      <c r="O2" t="s">
+        <v>134</v>
+      </c>
+      <c r="P2" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>133</v>
+      </c>
+      <c r="R2" t="s">
+        <v>135</v>
+      </c>
+      <c r="S2" t="s">
+        <v>132</v>
+      </c>
+      <c r="T2" t="s">
+        <v>136</v>
+      </c>
+      <c r="U2" t="s">
+        <v>137</v>
+      </c>
+      <c r="V2" t="s">
+        <v>138</v>
+      </c>
+      <c r="W2" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="X2" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>143</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>144</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/inputExcel/250702 AI information matrix.xlsx
+++ b/inputExcel/250702 AI information matrix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lorenzpiazolo/Documents/Python/CAOsDataExtraction/inputExcel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D96ACEB-1523-BF41-B1A0-4B277DED6AA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{922849DA-5F6E-4B42-A5AE-D5D31B2E79BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{DE6B04FB-4535-6B4B-8490-9A662190B816}"/>
+    <workbookView xWindow="4340" yWindow="500" windowWidth="24460" windowHeight="16020" activeTab="2" xr2:uid="{DE6B04FB-4535-6B4B-8490-9A662190B816}"/>
   </bookViews>
   <sheets>
     <sheet name="Full Matrix" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="153">
   <si>
     <t>CAO</t>
   </si>
@@ -485,6 +485,18 @@
   </si>
   <si>
     <t>all information about third jobgroup. Often mentioned in wage table as column titles (number or text). Ex: I=Statutory minimum wage (WML); F-21-5; 65-12-57</t>
+  </si>
+  <si>
+    <t>Homeoffice</t>
+  </si>
+  <si>
+    <t>start date of contract usually on front page (date in dd/mm/yyyy format). Ex: 01/04/2019; 01/01/2017; 01/07/2019</t>
+  </si>
+  <si>
+    <t>end date of contract usually on front page (date in dd/mm/yyyy format). Ex: 31/01/2023; 31/03/2019; 28/02/2015</t>
+  </si>
+  <si>
+    <t>All information related to home office, remote work, or telecommuting (text). Include rules, eligibility, allowance, equipment, and any limitations. Ex: Employees may work from home up to 2 days per week; Home office allowance of €3 per day; Maximum 8 days per month remote work permitted.</t>
   </si>
 </sst>
 </file>
@@ -534,7 +546,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -568,6 +580,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFBD4B4"/>
+        <bgColor rgb="FFFBD4B4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor rgb="FFFBD4B4"/>
       </patternFill>
     </fill>
@@ -619,7 +637,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -645,6 +663,9 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -979,15 +1000,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03BF5F48-E2E4-AB45-AC3D-2386CAD72E8A}">
-  <dimension ref="A1:BN10"/>
+  <dimension ref="A1:BO11"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A6" activeCellId="1" sqref="A1:XFD1 A6:XFD10"/>
+    <sheetView topLeftCell="BI1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="BP11" sqref="BP11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:66" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:67" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>64</v>
       </c>
@@ -1186,8 +1207,11 @@
       <c r="BN1" s="9" t="s">
         <v>56</v>
       </c>
+      <c r="BO1" s="11" t="s">
+        <v>149</v>
+      </c>
     </row>
-    <row r="2" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>65</v>
       </c>
@@ -1301,7 +1325,7 @@
       </c>
       <c r="AU2" s="1"/>
     </row>
-    <row r="3" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>65</v>
       </c>
@@ -1414,7 +1438,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="4" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>65</v>
       </c>
@@ -1527,7 +1551,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="5" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>65</v>
       </c>
@@ -1640,7 +1664,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:66" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:67" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>65</v>
       </c>
@@ -1672,7 +1696,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="7" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>65</v>
       </c>
@@ -1707,7 +1731,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="8" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>65</v>
       </c>
@@ -1742,7 +1766,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="9" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>65</v>
       </c>
@@ -1777,7 +1801,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="10" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>65</v>
       </c>
@@ -1795,6 +1819,26 @@
       </c>
       <c r="BN10" t="s">
         <v>145</v>
+      </c>
+    </row>
+    <row r="11" spans="1:67" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G11" t="s">
+        <v>150</v>
+      </c>
+      <c r="H11" t="s">
+        <v>151</v>
+      </c>
+      <c r="J11" t="s">
+        <v>66</v>
+      </c>
+      <c r="BO11" t="s">
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -2326,15 +2370,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AA65DA5-B948-1C47-BC06-E1245285351C}">
-  <dimension ref="A1:AC2"/>
+  <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="AP5" sqref="AP5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:29" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>64</v>
       </c>
@@ -2422,8 +2466,11 @@
       <c r="AC1" s="9" t="s">
         <v>56</v>
       </c>
+      <c r="AD1" s="11" t="s">
+        <v>149</v>
+      </c>
     </row>
-    <row r="2" spans="1:29" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>65</v>
       </c>
@@ -2507,6 +2554,9 @@
       </c>
       <c r="AC2" t="s">
         <v>145</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>152</v>
       </c>
     </row>
   </sheetData>

--- a/inputExcel/250702 AI information matrix.xlsx
+++ b/inputExcel/250702 AI information matrix.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lorenzpiazolo/Documents/Python/CAOsDataExtraction/inputExcel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{922849DA-5F6E-4B42-A5AE-D5D31B2E79BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47CD9D9A-CD43-A249-9E29-AEDF71E9F039}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4340" yWindow="500" windowWidth="24460" windowHeight="16020" activeTab="2" xr2:uid="{DE6B04FB-4535-6B4B-8490-9A662190B816}"/>
+    <workbookView xWindow="4340" yWindow="500" windowWidth="24460" windowHeight="15880" activeTab="2" xr2:uid="{DE6B04FB-4535-6B4B-8490-9A662190B816}"/>
   </bookViews>
   <sheets>
     <sheet name="Full Matrix" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="154">
   <si>
     <t>CAO</t>
   </si>
@@ -235,9 +235,6 @@
     <t>File_name</t>
   </si>
   <si>
-    <t>pdf file name (text).</t>
-  </si>
-  <si>
     <t>In pdf file name. (boolean: Yes/No). Ex: Yes; No</t>
   </si>
   <si>
@@ -388,9 +385,6 @@
     <t>start date of seventh wage table (date in dd/mm/yyyy format). Ex: 01/01/2018; 01/01/2017; 01/07/2010</t>
   </si>
   <si>
-    <t>Does the CAO file contain additional basic/normal wage tables beyond the 7 already extracted? (Boolean: Yes/No). Ex: Yes; No</t>
-  </si>
-  <si>
     <t>All additional context related to salary interpretation not covered in other fields (text). Ex: Youth salary scales phased out from 2014; Hourly wage = monthly salary / 156; Classification via FWG® system; Introductory salary scales abolished as of 2013</t>
   </si>
   <si>
@@ -497,6 +491,15 @@
   </si>
   <si>
     <t>All information related to home office, remote work, or telecommuting (text). Include rules, eligibility, allowance, equipment, and any limitations. Ex: Employees may work from home up to 2 days per week; Home office allowance of €3 per day; Maximum 8 days per month remote work permitted.</t>
+  </si>
+  <si>
+    <t>Does the CAO file contain additional basic/normal wage tables beyond the 7 already extracted in the precious columns? (Boolean: Yes/No). Ex: Yes; No</t>
+  </si>
+  <si>
+    <t>start date of contract usually under general information (date in dd/mm/yyyy format). Ex: 01/04/2019; 01/01/2017; 01/07/2018</t>
+  </si>
+  <si>
+    <t>end date of contract usually under general information (date in dd/mm/yyyy format). Ex: 31/01/2023; 31/03/2019; 28/02/2014</t>
   </si>
 </sst>
 </file>
@@ -1002,8 +1005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03BF5F48-E2E4-AB45-AC3D-2386CAD72E8A}">
   <dimension ref="A1:BO11"/>
   <sheetViews>
-    <sheetView topLeftCell="BI1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="BP11" sqref="BP11"/>
+    <sheetView topLeftCell="AH1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AL29" sqref="AL29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1148,10 +1151,10 @@
         <v>42</v>
       </c>
       <c r="AU1" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="AV1" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="AW1" s="7" t="s">
         <v>43</v>
@@ -1208,364 +1211,352 @@
         <v>56</v>
       </c>
       <c r="BO1" s="11" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="D2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J2" t="s">
         <v>65</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G2" t="s">
-        <v>77</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="K2" t="s">
+        <v>144</v>
+      </c>
+      <c r="L2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M2" t="s">
+        <v>75</v>
+      </c>
+      <c r="N2" t="s">
         <v>78</v>
       </c>
-      <c r="J2" t="s">
-        <v>66</v>
-      </c>
-      <c r="K2" t="s">
-        <v>146</v>
-      </c>
-      <c r="L2" t="s">
-        <v>73</v>
-      </c>
-      <c r="M2" t="s">
-        <v>76</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>79</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>80</v>
       </c>
-      <c r="P2" t="s">
-        <v>81</v>
-      </c>
       <c r="Q2" t="s">
+        <v>83</v>
+      </c>
+      <c r="R2" t="s">
         <v>84</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>85</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>86</v>
       </c>
-      <c r="T2" t="s">
-        <v>87</v>
-      </c>
       <c r="U2" t="s">
+        <v>89</v>
+      </c>
+      <c r="V2" t="s">
         <v>90</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>91</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>92</v>
       </c>
-      <c r="X2" t="s">
-        <v>93</v>
-      </c>
       <c r="Y2" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z2" t="s">
         <v>96</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>97</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>98</v>
       </c>
-      <c r="AB2" t="s">
-        <v>99</v>
-      </c>
       <c r="AC2" t="s">
+        <v>101</v>
+      </c>
+      <c r="AD2" t="s">
         <v>102</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>103</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
         <v>104</v>
       </c>
-      <c r="AF2" t="s">
-        <v>105</v>
-      </c>
       <c r="AG2" t="s">
+        <v>107</v>
+      </c>
+      <c r="AH2" t="s">
         <v>108</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AI2" t="s">
         <v>109</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AJ2" t="s">
         <v>110</v>
       </c>
-      <c r="AJ2" t="s">
-        <v>111</v>
-      </c>
       <c r="AK2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AL2" t="s">
         <v>114</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="AM2" t="s">
+        <v>117</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>151</v>
+      </c>
+      <c r="AO2" t="s">
         <v>115</v>
       </c>
-      <c r="AM2" t="s">
-        <v>119</v>
-      </c>
-      <c r="AN2" t="s">
+      <c r="AP2" t="s">
         <v>116</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>117</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>118</v>
       </c>
       <c r="AU2" s="1"/>
     </row>
     <row r="3" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="D3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H3" t="s">
+        <v>77</v>
+      </c>
+      <c r="J3" t="s">
         <v>65</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G3" t="s">
-        <v>77</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="K3" t="s">
+        <v>145</v>
+      </c>
+      <c r="L3" t="s">
+        <v>73</v>
+      </c>
+      <c r="M3" t="s">
+        <v>75</v>
+      </c>
+      <c r="N3" t="s">
         <v>78</v>
       </c>
-      <c r="J3" t="s">
-        <v>66</v>
-      </c>
-      <c r="K3" t="s">
-        <v>147</v>
-      </c>
-      <c r="L3" t="s">
-        <v>74</v>
-      </c>
-      <c r="M3" t="s">
-        <v>76</v>
-      </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>79</v>
       </c>
-      <c r="O3" t="s">
-        <v>80</v>
-      </c>
       <c r="P3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q3" t="s">
+        <v>83</v>
+      </c>
+      <c r="R3" t="s">
         <v>84</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>85</v>
       </c>
-      <c r="S3" t="s">
-        <v>86</v>
-      </c>
       <c r="T3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="U3" t="s">
+        <v>89</v>
+      </c>
+      <c r="V3" t="s">
         <v>90</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>91</v>
       </c>
-      <c r="W3" t="s">
-        <v>92</v>
-      </c>
       <c r="X3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Y3" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z3" t="s">
         <v>96</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>97</v>
       </c>
-      <c r="AA3" t="s">
-        <v>98</v>
-      </c>
       <c r="AB3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AC3" t="s">
+        <v>101</v>
+      </c>
+      <c r="AD3" t="s">
         <v>102</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>103</v>
       </c>
-      <c r="AE3" t="s">
-        <v>104</v>
-      </c>
       <c r="AF3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AG3" t="s">
+        <v>107</v>
+      </c>
+      <c r="AH3" t="s">
         <v>108</v>
       </c>
-      <c r="AH3" t="s">
+      <c r="AI3" t="s">
         <v>109</v>
       </c>
-      <c r="AI3" t="s">
-        <v>110</v>
-      </c>
       <c r="AJ3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AK3" t="s">
+        <v>113</v>
+      </c>
+      <c r="AL3" t="s">
         <v>114</v>
       </c>
-      <c r="AL3" t="s">
+      <c r="AM3" t="s">
+        <v>117</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>151</v>
+      </c>
+      <c r="AO3" t="s">
         <v>115</v>
       </c>
-      <c r="AM3" t="s">
-        <v>119</v>
-      </c>
-      <c r="AN3" t="s">
+      <c r="AP3" t="s">
         <v>116</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>117</v>
-      </c>
-      <c r="AP3" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="D4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" t="s">
+        <v>76</v>
+      </c>
+      <c r="H4" t="s">
+        <v>77</v>
+      </c>
+      <c r="J4" t="s">
         <v>65</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G4" t="s">
-        <v>77</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="K4" t="s">
+        <v>146</v>
+      </c>
+      <c r="L4" t="s">
+        <v>74</v>
+      </c>
+      <c r="M4" t="s">
+        <v>75</v>
+      </c>
+      <c r="N4" t="s">
         <v>78</v>
       </c>
-      <c r="J4" t="s">
-        <v>66</v>
-      </c>
-      <c r="K4" t="s">
-        <v>148</v>
-      </c>
-      <c r="L4" t="s">
-        <v>75</v>
-      </c>
-      <c r="M4" t="s">
-        <v>76</v>
-      </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>79</v>
       </c>
-      <c r="O4" t="s">
-        <v>80</v>
-      </c>
       <c r="P4" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q4" t="s">
         <v>83</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>84</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>85</v>
       </c>
-      <c r="S4" t="s">
-        <v>86</v>
-      </c>
       <c r="T4" t="s">
+        <v>88</v>
+      </c>
+      <c r="U4" t="s">
         <v>89</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>90</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>91</v>
       </c>
-      <c r="W4" t="s">
-        <v>92</v>
-      </c>
       <c r="X4" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y4" t="s">
         <v>95</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>96</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>97</v>
       </c>
-      <c r="AA4" t="s">
-        <v>98</v>
-      </c>
       <c r="AB4" t="s">
+        <v>100</v>
+      </c>
+      <c r="AC4" t="s">
         <v>101</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>102</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>103</v>
       </c>
-      <c r="AE4" t="s">
-        <v>104</v>
-      </c>
       <c r="AF4" t="s">
+        <v>106</v>
+      </c>
+      <c r="AG4" t="s">
         <v>107</v>
       </c>
-      <c r="AG4" t="s">
+      <c r="AH4" t="s">
         <v>108</v>
       </c>
-      <c r="AH4" t="s">
+      <c r="AI4" t="s">
         <v>109</v>
       </c>
-      <c r="AI4" t="s">
-        <v>110</v>
-      </c>
       <c r="AJ4" t="s">
+        <v>112</v>
+      </c>
+      <c r="AK4" t="s">
         <v>113</v>
       </c>
-      <c r="AK4" t="s">
+      <c r="AL4" t="s">
         <v>114</v>
       </c>
-      <c r="AL4" t="s">
+      <c r="AM4" t="s">
+        <v>117</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>151</v>
+      </c>
+      <c r="AO4" t="s">
         <v>115</v>
       </c>
-      <c r="AM4" t="s">
-        <v>119</v>
-      </c>
-      <c r="AN4" t="s">
+      <c r="AP4" t="s">
         <v>116</v>
-      </c>
-      <c r="AO4" t="s">
-        <v>117</v>
-      </c>
-      <c r="AP4" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="D5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H5" t="s">
+        <v>77</v>
+      </c>
+      <c r="J5" t="s">
         <v>65</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G5" t="s">
-        <v>77</v>
-      </c>
-      <c r="H5" t="s">
-        <v>78</v>
-      </c>
-      <c r="J5" t="s">
-        <v>66</v>
       </c>
       <c r="K5" t="s">
         <v>61</v>
@@ -1665,180 +1656,162 @@
       </c>
     </row>
     <row r="6" spans="1:67" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="D6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H6" t="s">
+        <v>77</v>
+      </c>
+      <c r="J6" t="s">
         <v>65</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G6" t="s">
-        <v>77</v>
-      </c>
-      <c r="H6" t="s">
-        <v>78</v>
-      </c>
-      <c r="J6" t="s">
-        <v>66</v>
-      </c>
       <c r="AQ6" t="s">
+        <v>118</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>123</v>
+      </c>
+      <c r="AS6" t="s">
+        <v>119</v>
+      </c>
+      <c r="AT6" t="s">
         <v>120</v>
       </c>
-      <c r="AR6" t="s">
-        <v>125</v>
-      </c>
-      <c r="AS6" t="s">
-        <v>121</v>
-      </c>
-      <c r="AT6" t="s">
+      <c r="AU6" t="s">
         <v>122</v>
-      </c>
-      <c r="AU6" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="D7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G7" t="s">
+        <v>76</v>
+      </c>
+      <c r="H7" t="s">
+        <v>77</v>
+      </c>
+      <c r="J7" t="s">
         <v>65</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G7" t="s">
-        <v>77</v>
-      </c>
-      <c r="H7" t="s">
-        <v>78</v>
-      </c>
-      <c r="J7" t="s">
-        <v>66</v>
-      </c>
       <c r="AV7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AW7" t="s">
+        <v>127</v>
+      </c>
+      <c r="AX7" t="s">
+        <v>128</v>
+      </c>
+      <c r="AY7" t="s">
+        <v>125</v>
+      </c>
+      <c r="AZ7" t="s">
+        <v>132</v>
+      </c>
+      <c r="BA7" t="s">
         <v>129</v>
-      </c>
-      <c r="AX7" t="s">
-        <v>130</v>
-      </c>
-      <c r="AY7" t="s">
-        <v>127</v>
-      </c>
-      <c r="AZ7" t="s">
-        <v>134</v>
-      </c>
-      <c r="BA7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="D8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G8" t="s">
+        <v>76</v>
+      </c>
+      <c r="H8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J8" t="s">
         <v>65</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G8" t="s">
-        <v>77</v>
-      </c>
-      <c r="H8" t="s">
-        <v>78</v>
-      </c>
-      <c r="J8" t="s">
-        <v>66</v>
-      </c>
       <c r="BB8" t="s">
+        <v>131</v>
+      </c>
+      <c r="BC8" t="s">
         <v>133</v>
       </c>
-      <c r="BC8" t="s">
+      <c r="BD8" t="s">
+        <v>130</v>
+      </c>
+      <c r="BE8" t="s">
+        <v>134</v>
+      </c>
+      <c r="BF8" t="s">
         <v>135</v>
       </c>
-      <c r="BD8" t="s">
-        <v>132</v>
-      </c>
-      <c r="BE8" t="s">
+      <c r="BG8" t="s">
         <v>136</v>
-      </c>
-      <c r="BF8" t="s">
-        <v>137</v>
-      </c>
-      <c r="BG8" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="D9" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G9" t="s">
+        <v>76</v>
+      </c>
+      <c r="H9" t="s">
+        <v>77</v>
+      </c>
+      <c r="J9" t="s">
         <v>65</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G9" t="s">
-        <v>77</v>
-      </c>
-      <c r="H9" t="s">
-        <v>78</v>
-      </c>
-      <c r="J9" t="s">
-        <v>66</v>
-      </c>
       <c r="BH9" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="BI9" t="s">
+        <v>138</v>
+      </c>
+      <c r="BJ9" t="s">
         <v>139</v>
       </c>
-      <c r="BI9" t="s">
+      <c r="BK9" t="s">
         <v>140</v>
       </c>
-      <c r="BJ9" t="s">
+      <c r="BL9" t="s">
         <v>141</v>
       </c>
-      <c r="BK9" t="s">
+      <c r="BM9" t="s">
         <v>142</v>
-      </c>
-      <c r="BL9" t="s">
-        <v>143</v>
-      </c>
-      <c r="BM9" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="10" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="D10" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G10" t="s">
+        <v>76</v>
+      </c>
+      <c r="H10" t="s">
+        <v>77</v>
+      </c>
+      <c r="J10" t="s">
         <v>65</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="G10" t="s">
-        <v>77</v>
-      </c>
-      <c r="H10" t="s">
-        <v>78</v>
-      </c>
-      <c r="J10" t="s">
-        <v>66</v>
-      </c>
       <c r="BN10" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="D11" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G11" t="s">
+        <v>148</v>
+      </c>
+      <c r="H11" t="s">
+        <v>149</v>
+      </c>
+      <c r="J11" t="s">
         <v>65</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="BO11" t="s">
         <v>150</v>
-      </c>
-      <c r="H11" t="s">
-        <v>151</v>
-      </c>
-      <c r="J11" t="s">
-        <v>66</v>
-      </c>
-      <c r="BO11" t="s">
-        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -1850,127 +1823,124 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4CD2C15-18CD-B441-BAB5-E2EE8A3E9E99}">
-  <dimension ref="A1:AG5"/>
+  <dimension ref="A1:AF5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="AD8" sqref="AD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>64</v>
+    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="R1" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="S1" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="T1" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="U1" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="V1" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="W1" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="X1" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y1" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Z1" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AA1" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="AB1" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AC1" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AD1" s="4" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="AE1" s="4" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="AF1" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="AG1" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>144</v>
       </c>
       <c r="B2" t="s">
-        <v>146</v>
+        <v>72</v>
       </c>
       <c r="C2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E2" t="s">
         <v>79</v>
@@ -1979,7 +1949,7 @@
         <v>80</v>
       </c>
       <c r="G2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H2" t="s">
         <v>84</v>
@@ -1991,7 +1961,7 @@
         <v>86</v>
       </c>
       <c r="K2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L2" t="s">
         <v>90</v>
@@ -2003,7 +1973,7 @@
         <v>92</v>
       </c>
       <c r="O2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P2" t="s">
         <v>96</v>
@@ -2015,7 +1985,7 @@
         <v>98</v>
       </c>
       <c r="S2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="T2" t="s">
         <v>102</v>
@@ -2027,7 +1997,7 @@
         <v>104</v>
       </c>
       <c r="W2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="X2" t="s">
         <v>108</v>
@@ -2039,48 +2009,45 @@
         <v>110</v>
       </c>
       <c r="AA2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AB2" t="s">
         <v>114</v>
       </c>
       <c r="AC2" t="s">
+        <v>117</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>151</v>
+      </c>
+      <c r="AE2" t="s">
         <v>115</v>
       </c>
-      <c r="AD2" t="s">
-        <v>119</v>
-      </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
         <v>116</v>
       </c>
-      <c r="AF2" t="s">
-        <v>117</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>118</v>
-      </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>65</v>
+        <v>145</v>
       </c>
       <c r="B3" t="s">
-        <v>147</v>
+        <v>73</v>
       </c>
       <c r="C3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E3" t="s">
         <v>79</v>
       </c>
       <c r="F3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H3" t="s">
         <v>84</v>
@@ -2089,10 +2056,10 @@
         <v>85</v>
       </c>
       <c r="J3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L3" t="s">
         <v>90</v>
@@ -2101,10 +2068,10 @@
         <v>91</v>
       </c>
       <c r="N3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P3" t="s">
         <v>96</v>
@@ -2113,10 +2080,10 @@
         <v>97</v>
       </c>
       <c r="R3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="S3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="T3" t="s">
         <v>102</v>
@@ -2125,10 +2092,10 @@
         <v>103</v>
       </c>
       <c r="V3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="W3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="X3" t="s">
         <v>108</v>
@@ -2137,48 +2104,45 @@
         <v>109</v>
       </c>
       <c r="Z3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AA3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AB3" t="s">
         <v>114</v>
       </c>
       <c r="AC3" t="s">
+        <v>117</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>151</v>
+      </c>
+      <c r="AE3" t="s">
         <v>115</v>
       </c>
-      <c r="AD3" t="s">
-        <v>119</v>
-      </c>
-      <c r="AE3" t="s">
+      <c r="AF3" t="s">
         <v>116</v>
       </c>
-      <c r="AF3" t="s">
-        <v>117</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>118</v>
-      </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>65</v>
+        <v>146</v>
       </c>
       <c r="B4" t="s">
-        <v>148</v>
+        <v>74</v>
       </c>
       <c r="C4" t="s">
         <v>75</v>
       </c>
       <c r="D4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E4" t="s">
         <v>79</v>
       </c>
       <c r="F4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G4" t="s">
         <v>83</v>
@@ -2190,7 +2154,7 @@
         <v>85</v>
       </c>
       <c r="J4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K4" t="s">
         <v>89</v>
@@ -2202,7 +2166,7 @@
         <v>91</v>
       </c>
       <c r="N4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="O4" t="s">
         <v>95</v>
@@ -2214,7 +2178,7 @@
         <v>97</v>
       </c>
       <c r="R4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="S4" t="s">
         <v>101</v>
@@ -2226,7 +2190,7 @@
         <v>103</v>
       </c>
       <c r="V4" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="W4" t="s">
         <v>107</v>
@@ -2238,7 +2202,7 @@
         <v>109</v>
       </c>
       <c r="Z4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AA4" t="s">
         <v>113</v>
@@ -2247,24 +2211,21 @@
         <v>114</v>
       </c>
       <c r="AC4" t="s">
+        <v>117</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>151</v>
+      </c>
+      <c r="AE4" t="s">
         <v>115</v>
       </c>
-      <c r="AD4" t="s">
-        <v>119</v>
-      </c>
-      <c r="AE4" t="s">
+      <c r="AF4" t="s">
         <v>116</v>
       </c>
-      <c r="AF4" t="s">
-        <v>117</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>118</v>
-      </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B5" t="s">
         <v>61</v>
@@ -2357,9 +2318,6 @@
         <v>61</v>
       </c>
       <c r="AF5" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG5" t="s">
         <v>61</v>
       </c>
     </row>
@@ -2370,193 +2328,178 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AA65DA5-B948-1C47-BC06-E1245285351C}">
-  <dimension ref="A1:AD2"/>
+  <dimension ref="A1:AA2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AP5" sqref="AP5"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:30" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>64</v>
+    <row r="1" spans="1:27" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>8</v>
+      <c r="C1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="J1" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q1" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="R1" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="S1" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="V1" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="W1" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="X1" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y1" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z1" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA1" s="11" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D2" t="s">
         <v>123</v>
       </c>
-      <c r="K1" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="O1" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="P1" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q1" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="R1" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="S1" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="T1" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="U1" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="V1" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="W1" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="X1" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y1" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z1" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA1" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB1" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC1" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD1" s="11" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C2" t="s">
-        <v>78</v>
-      </c>
       <c r="E2" t="s">
-        <v>66</v>
+        <v>119</v>
       </c>
       <c r="F2" t="s">
         <v>120</v>
       </c>
       <c r="G2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H2" t="s">
+        <v>124</v>
+      </c>
+      <c r="I2" t="s">
+        <v>127</v>
+      </c>
+      <c r="J2" t="s">
+        <v>128</v>
+      </c>
+      <c r="K2" t="s">
         <v>125</v>
       </c>
-      <c r="H2" t="s">
-        <v>121</v>
-      </c>
-      <c r="I2" t="s">
-        <v>122</v>
-      </c>
-      <c r="J2" t="s">
-        <v>124</v>
-      </c>
-      <c r="K2" t="s">
-        <v>126</v>
-      </c>
       <c r="L2" t="s">
+        <v>132</v>
+      </c>
+      <c r="M2" t="s">
         <v>129</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
+        <v>131</v>
+      </c>
+      <c r="O2" t="s">
+        <v>133</v>
+      </c>
+      <c r="P2" t="s">
         <v>130</v>
       </c>
-      <c r="N2" t="s">
-        <v>127</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
         <v>134</v>
-      </c>
-      <c r="P2" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>133</v>
       </c>
       <c r="R2" t="s">
         <v>135</v>
       </c>
       <c r="S2" t="s">
-        <v>132</v>
-      </c>
-      <c r="T2" t="s">
         <v>136</v>
       </c>
+      <c r="T2" s="10" t="s">
+        <v>137</v>
+      </c>
       <c r="U2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="V2" t="s">
-        <v>138</v>
-      </c>
-      <c r="W2" s="10" t="s">
         <v>139</v>
       </c>
+      <c r="W2" t="s">
+        <v>140</v>
+      </c>
       <c r="X2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Y2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Z2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AA2" t="s">
-        <v>143</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>144</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>145</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
